--- a/中期_简单回归/data/09-16.xlsx
+++ b/中期_简单回归/data/09-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>时间</t>
   </si>
@@ -73,13 +73,7 @@
     <t>DR007</t>
   </si>
   <si>
-    <t>y_t-1</t>
-  </si>
-  <si>
     <t>中债国债到期收益率:1年:月</t>
-  </si>
-  <si>
-    <t>2009.11</t>
   </si>
   <si>
     <t>2009.12</t>
@@ -308,18 +302,25 @@
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="###,###,###,###,##0.0000_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -349,15 +350,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,16 +393,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -394,36 +438,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,27 +452,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,8 +499,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,13 +534,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,13 +606,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,19 +672,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,121 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,24 +746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -780,11 +778,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,9 +820,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,10 +834,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,137 +846,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -969,27 +985,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1309,10 +1335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:U87"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:T119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1322,7 +1348,7 @@
     <col min="16" max="16" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.75" spans="1:21">
+    <row r="1" ht="51.75" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1332,78 +1358,75 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+    </row>
+    <row r="2" ht="17.25" spans="1:20">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:21">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4">
-        <v>6.8274</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.216786666666667</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B2" s="5">
+        <v>6.8279</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.214183333333333</v>
+      </c>
+      <c r="D2" s="6">
         <v>1.02275545</v>
       </c>
-      <c r="E2" s="5">
-        <v>0.313157894736842</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="6">
+        <v>0.371363636363636</v>
+      </c>
+      <c r="F2" s="6">
         <v>0.119</v>
       </c>
       <c r="G2" s="1">
@@ -1415,60 +1438,57 @@
       <c r="I2" s="1">
         <v>-18.85</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="10">
         <v>32.1</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="10">
         <v>17.8</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="11">
         <v>15.8</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>19.2</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="12">
         <v>0.6</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="6">
         <v>-2.08</v>
       </c>
       <c r="P2">
         <v>34.3621221361606</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="12">
         <v>34.63</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="12">
         <v>29.74</v>
       </c>
-      <c r="S2" s="12">
-        <v>1.432</v>
-      </c>
-      <c r="T2" s="5">
-        <v>1.51295882352941</v>
-      </c>
-      <c r="U2" s="5">
-        <v>1.5068380952381</v>
+      <c r="S2" s="15">
+        <v>1.47486956521739</v>
+      </c>
+      <c r="T2" s="6">
+        <v>1.4887347826087</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4">
-        <v>6.8279</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.214183333333333</v>
-      </c>
-      <c r="D3" s="5">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6.8273</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.207845</v>
+      </c>
+      <c r="D3" s="6">
         <v>1.04334431818182</v>
       </c>
-      <c r="E3" s="5">
-        <v>0.371363636363636</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="6">
+        <v>0.34578947368421</v>
+      </c>
+      <c r="F3" s="6">
         <v>0.118064516129032</v>
       </c>
       <c r="G3" s="1">
@@ -1480,60 +1500,58 @@
       <c r="I3" s="1">
         <v>-16.01</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="10">
         <v>30.4</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="10">
         <v>16.1</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="11">
         <v>17.5</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>18.5</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="12">
         <v>1.9</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="6">
         <v>1.7</v>
       </c>
       <c r="P3">
         <v>33.6676581851098</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="12">
         <v>32.35</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="12">
         <v>27.68</v>
       </c>
-      <c r="S3" s="12">
-        <v>1.47486956521739</v>
-      </c>
-      <c r="T3" s="5">
-        <v>1.5068380952381</v>
-      </c>
-      <c r="U3" s="5">
-        <v>1.4887347826087</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" spans="1:21">
+      <c r="S3" s="15">
+        <v>1.46022</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1.58457</v>
+      </c>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4">
-        <v>6.8273</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.207845</v>
-      </c>
-      <c r="D4" s="5">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6.827</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.208094</v>
+      </c>
+      <c r="D4" s="6">
         <v>1.04712352631579</v>
       </c>
-      <c r="E4" s="5">
-        <v>0.34578947368421</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="6">
+        <v>0.345789473684211</v>
+      </c>
+      <c r="F4" s="6">
         <v>0.11</v>
       </c>
       <c r="G4" s="1">
@@ -1545,60 +1563,57 @@
       <c r="I4" s="1">
         <v>21</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="10">
         <v>26.6</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="10">
         <v>31.1</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>14</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>29.2</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="12">
         <v>1.5</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="6">
         <v>4.32</v>
       </c>
       <c r="P4">
         <v>34.1007254875796</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="12">
         <v>38.96</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="12">
         <v>25.98</v>
       </c>
-      <c r="S4" s="12">
-        <v>1.46022</v>
-      </c>
-      <c r="T4" s="5">
-        <v>1.4887347826087</v>
-      </c>
-      <c r="U4" s="5">
-        <v>1.58457</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:21">
+      <c r="S4" s="15">
+        <v>1.85657647058824</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1.65816470588235</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4">
-        <v>6.827</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.208094</v>
-      </c>
-      <c r="D5" s="5">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6.8264</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.221180869565217</v>
+      </c>
+      <c r="D5" s="6">
         <v>1.02145063157895</v>
       </c>
-      <c r="E5" s="5">
-        <v>0.345789473684211</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="6">
+        <v>0.395652173913044</v>
+      </c>
+      <c r="F5" s="6">
         <v>0.126428571428571</v>
       </c>
       <c r="G5" s="1">
@@ -1610,60 +1625,57 @@
       <c r="I5" s="1">
         <v>31.29</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="10">
         <v>26.6</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="10">
         <v>31.1</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="11">
         <v>22.1</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>12.8</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="12">
         <v>2.7</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="6">
         <v>5.39</v>
       </c>
       <c r="P5">
         <v>33.1767406204083</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="12">
         <v>34.99</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="12">
         <v>25.52</v>
       </c>
-      <c r="S5" s="12">
-        <v>1.85657647058824</v>
-      </c>
-      <c r="T5" s="5">
-        <v>1.58457</v>
-      </c>
-      <c r="U5" s="5">
-        <v>1.65816470588235</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" spans="1:21">
+      <c r="S5" s="15">
+        <v>1.64326956521739</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1.52520434782609</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4">
-        <v>6.8264</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.221180869565217</v>
-      </c>
-      <c r="D6" s="5">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6.8262</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.2495495</v>
+      </c>
+      <c r="D6" s="6">
         <v>1.06775186956522</v>
       </c>
-      <c r="E6" s="5">
-        <v>0.395652173913044</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="6">
+        <v>0.445</v>
+      </c>
+      <c r="F6" s="6">
         <v>0.164516129032258</v>
       </c>
       <c r="G6" s="1">
@@ -1675,60 +1687,57 @@
       <c r="I6" s="1">
         <v>28.69</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="10">
         <v>26.4</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="10">
         <v>35.1</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="11">
         <v>18</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>18.1</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="12">
         <v>2.4</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="6">
         <v>5.91</v>
       </c>
       <c r="P6">
         <v>29.8129710212621</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="12">
         <v>29.94</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="12">
         <v>22.5</v>
       </c>
-      <c r="S6" s="12">
-        <v>1.64326956521739</v>
-      </c>
-      <c r="T6" s="5">
-        <v>1.65816470588235</v>
-      </c>
-      <c r="U6" s="5">
-        <v>1.52520434782609</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="1:21">
+      <c r="S6" s="15">
+        <v>1.64645714285714</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1.62439523809524</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6.8262</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.2495495</v>
-      </c>
-      <c r="D7" s="5">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6.8274</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.315205789473684</v>
+      </c>
+      <c r="D7" s="6">
         <v>1.10521476190476</v>
       </c>
-      <c r="E7" s="5">
-        <v>0.445</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="6">
+        <v>0.371</v>
+      </c>
+      <c r="F7" s="6">
         <v>0.198333333333333</v>
       </c>
       <c r="G7" s="1">
@@ -1740,60 +1749,57 @@
       <c r="I7" s="1">
         <v>29.15</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="10">
         <v>26.1</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="10">
         <v>36.2</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="11">
         <v>18.5</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>17.8</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="12">
         <v>2.8</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="6">
         <v>6.81</v>
       </c>
       <c r="P7">
         <v>31.496602290904</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="12">
         <v>31.25</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="12">
         <v>21.48</v>
       </c>
-      <c r="S7" s="12">
-        <v>1.64645714285714</v>
-      </c>
-      <c r="T7" s="5">
-        <v>1.52520434782609</v>
-      </c>
-      <c r="U7" s="5">
-        <v>1.62439523809524</v>
-      </c>
-    </row>
-    <row r="8" ht="17.25" spans="1:21">
+      <c r="S7" s="15">
+        <v>1.873875</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1.738025</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4">
-        <v>6.8274</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.315205789473684</v>
-      </c>
-      <c r="D8" s="5">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6.8165</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.329121363636364</v>
+      </c>
+      <c r="D8" s="6">
         <v>1.05001915</v>
       </c>
-      <c r="E8" s="5">
-        <v>0.371</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="6">
+        <v>0.318181818181818</v>
+      </c>
+      <c r="F8" s="6">
         <v>0.200645161290323</v>
       </c>
       <c r="G8" s="1">
@@ -1805,60 +1811,57 @@
       <c r="I8" s="1">
         <v>33.16</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="10">
         <v>25.9</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="10">
         <v>38.2</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="11">
         <v>18.66</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>16.5</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="12">
         <v>3.1</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="6">
         <v>7.13</v>
       </c>
       <c r="P8">
         <v>29.6523504620211</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="12">
         <v>29.9</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="12">
         <v>21</v>
       </c>
-      <c r="S8" s="12">
-        <v>1.873875</v>
-      </c>
-      <c r="T8" s="5">
-        <v>1.62439523809524</v>
-      </c>
-      <c r="U8" s="5">
-        <v>1.738025</v>
-      </c>
-    </row>
-    <row r="9" ht="17.25" spans="1:21">
+      <c r="S8" s="15">
+        <v>2.70050476190476</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1.99838571428571</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4">
-        <v>6.8165</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.329121363636364</v>
-      </c>
-      <c r="D9" s="5">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6.7775</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.314830909090909</v>
+      </c>
+      <c r="D9" s="6">
         <v>1.01592672727273</v>
       </c>
-      <c r="E9" s="5">
-        <v>0.318181818181818</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="6">
+        <v>0.291428571428571</v>
+      </c>
+      <c r="F9" s="6">
         <v>0.176666666666667</v>
       </c>
       <c r="G9" s="1">
@@ -1870,60 +1873,57 @@
       <c r="I9" s="1">
         <v>35.12</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="10">
         <v>25.5</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="10">
         <v>38.1</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="11">
         <v>18.3</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>13.7</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="12">
         <v>2.9</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="6">
         <v>6.41</v>
       </c>
       <c r="P9">
         <v>26.2409298080238</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="12">
         <v>24.56</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="12">
         <v>18.46</v>
       </c>
-      <c r="S9" s="12">
-        <v>2.70050476190476</v>
-      </c>
-      <c r="T9" s="5">
-        <v>1.738025</v>
-      </c>
-      <c r="U9" s="5">
-        <v>1.99838571428571</v>
-      </c>
-    </row>
-    <row r="10" ht="17.25" spans="1:21">
+      <c r="S9" s="15">
+        <v>2.03115454545455</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1.97108181818182</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6.7775</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.314830909090909</v>
-      </c>
-      <c r="D10" s="5">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6.7901</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.265995238095238</v>
+      </c>
+      <c r="D10" s="6">
         <v>1.02222423809524</v>
       </c>
-      <c r="E10" s="5">
-        <v>0.291428571428571</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="6">
+        <v>0.259090909090909</v>
+      </c>
+      <c r="F10" s="6">
         <v>0.18258064516129</v>
       </c>
       <c r="G10" s="1">
@@ -1935,60 +1935,57 @@
       <c r="I10" s="1">
         <v>35.6</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="10">
         <v>24.9</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="10">
         <v>37.2</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="11">
         <v>17.9</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>13.4</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="12">
         <v>3.3</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="6">
         <v>4.84</v>
       </c>
       <c r="P10">
         <v>25.8236459800184</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="12">
         <v>22.9</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="12">
         <v>17.6</v>
       </c>
-      <c r="S10" s="12">
-        <v>2.03115454545455</v>
-      </c>
-      <c r="T10" s="5">
-        <v>1.99838571428571</v>
-      </c>
-      <c r="U10" s="5">
-        <v>1.97108181818182</v>
-      </c>
-    </row>
-    <row r="11" ht="17.25" spans="1:21">
+      <c r="S10" s="15">
+        <v>1.84571363636364</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1.91769545454545</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6.7901</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.265995238095238</v>
-      </c>
-      <c r="D11" s="5">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6.7462</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.251059090909091</v>
+      </c>
+      <c r="D11" s="6">
         <v>1.03503963636364</v>
       </c>
-      <c r="E11" s="5">
-        <v>0.259090909090909</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="6">
+        <v>0.256666666666667</v>
+      </c>
+      <c r="F11" s="6">
         <v>0.189354838709678</v>
       </c>
       <c r="G11" s="1">
@@ -2000,60 +1997,57 @@
       <c r="I11" s="1">
         <v>35.42</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="10">
         <v>24.8</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="10">
         <v>36.7</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="11">
         <v>18.4</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>13.9</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="12">
         <v>3.5</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="6">
         <v>4.32</v>
       </c>
       <c r="P11">
         <v>26.0211021653616</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="12">
         <v>21.9</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="12">
         <v>19.2</v>
       </c>
-      <c r="S11" s="12">
-        <v>1.84571363636364</v>
-      </c>
-      <c r="T11" s="5">
-        <v>1.97108181818182</v>
-      </c>
-      <c r="U11" s="5">
-        <v>1.91769545454545</v>
-      </c>
-    </row>
-    <row r="12" ht="17.25" spans="1:21">
+      <c r="S11" s="15">
+        <v>2.42087727272727</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1.92372727272727</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4">
-        <v>6.7462</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.251059090909091</v>
-      </c>
-      <c r="D12" s="5">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6.6732</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.25051619047619</v>
+      </c>
+      <c r="D12" s="6">
         <v>1.05980661904762</v>
       </c>
-      <c r="E12" s="5">
-        <v>0.256666666666667</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12" s="6">
+        <v>0.228</v>
+      </c>
+      <c r="F12" s="6">
         <v>0.194666666666667</v>
       </c>
       <c r="G12" s="1">
@@ -2065,60 +2059,57 @@
       <c r="I12" s="1">
         <v>34.01</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="10">
         <v>24.5</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="10">
         <v>36.4</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="11">
         <v>18.84</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>13.3</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="12">
         <v>3.6</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="6">
         <v>4.33</v>
       </c>
       <c r="P12">
         <v>25.3144564867881</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="12">
         <v>20.87</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="12">
         <v>18.96</v>
       </c>
-      <c r="S12" s="12">
-        <v>2.42087727272727</v>
-      </c>
-      <c r="T12" s="5">
-        <v>1.91769545454545</v>
-      </c>
-      <c r="U12" s="5">
-        <v>1.92372727272727</v>
-      </c>
-    </row>
-    <row r="13" ht="17.25" spans="1:21">
+      <c r="S12" s="15">
+        <v>1.9922</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1.99448235294118</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4">
-        <v>6.6732</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.25051619047619</v>
-      </c>
-      <c r="D13" s="5">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5">
+        <v>6.6558</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.249138181818182</v>
+      </c>
+      <c r="D13" s="6">
         <v>1.10444852380952</v>
       </c>
-      <c r="E13" s="5">
-        <v>0.228</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13" s="6">
+        <v>0.252</v>
+      </c>
+      <c r="F13" s="6">
         <v>0.191290322580645</v>
       </c>
       <c r="G13" s="1">
@@ -2130,60 +2121,57 @@
       <c r="I13" s="1">
         <v>32.72</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="10">
         <v>24.4</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="10">
         <v>36.5</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="11">
         <v>18.64</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>13.1</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="12">
         <v>4.4</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="6">
         <v>5.04</v>
       </c>
       <c r="P13">
         <v>25.5216720437649</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="12">
         <v>22.1</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="12">
         <v>19.3</v>
       </c>
-      <c r="S13" s="12">
-        <v>1.9922</v>
-      </c>
-      <c r="T13" s="5">
-        <v>1.92372727272727</v>
-      </c>
-      <c r="U13" s="5">
-        <v>1.99448235294118</v>
-      </c>
-    </row>
-    <row r="14" ht="17.25" spans="1:21">
+      <c r="S13" s="15">
+        <v>2.04423636363636</v>
+      </c>
+      <c r="T13" s="6">
+        <v>2.32171818181818</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4">
-        <v>6.6558</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.249138181818182</v>
-      </c>
-      <c r="D14" s="5">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6.6515</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.25412380952381</v>
+      </c>
+      <c r="D14" s="6">
         <v>1.11983128571429</v>
       </c>
-      <c r="E14" s="5">
-        <v>0.252</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14" s="6">
+        <v>0.294090909090909</v>
+      </c>
+      <c r="F14" s="6">
         <v>0.194333333333333</v>
       </c>
       <c r="G14" s="1">
@@ -2195,60 +2183,57 @@
       <c r="I14" s="1">
         <v>32.94</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="10">
         <v>24.9</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="10">
         <v>36.5</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="11">
         <v>18.7</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>13.3</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="12">
         <v>5.1</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="6">
         <v>6.06</v>
       </c>
       <c r="P14">
         <v>25.2695818999735</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="12">
         <v>22.1</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="12">
         <v>19.5</v>
       </c>
-      <c r="S14" s="12">
-        <v>2.04423636363636</v>
-      </c>
-      <c r="T14" s="5">
-        <v>1.99448235294118</v>
-      </c>
-      <c r="U14" s="5">
-        <v>2.32171818181818</v>
-      </c>
-    </row>
-    <row r="15" ht="17.25" spans="1:21">
+      <c r="S14" s="15">
+        <v>3.94977826086956</v>
+      </c>
+      <c r="T14" s="6">
+        <v>3.0289</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="4">
-        <v>6.6515</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.25412380952381</v>
-      </c>
-      <c r="D15" s="5">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5">
+        <v>6.6027</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.254065</v>
+      </c>
+      <c r="D15" s="6">
         <v>1.14652572727273</v>
       </c>
-      <c r="E15" s="5">
-        <v>0.294090909090909</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E15" s="6">
+        <v>0.2735</v>
+      </c>
+      <c r="F15" s="6">
         <v>0.183225806451613</v>
       </c>
       <c r="G15" s="1">
@@ -2260,60 +2245,57 @@
       <c r="I15" s="1">
         <v>31.3</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="10">
         <v>24.5</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="10">
         <v>33.2</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="11">
         <v>19.1</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>13.5</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="12">
         <v>4.6</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="6">
         <v>5.93</v>
       </c>
       <c r="P15">
         <v>25.3842281757672</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="12">
         <v>21.19</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="12">
         <v>19.72</v>
       </c>
-      <c r="S15" s="12">
-        <v>3.94977826086956</v>
-      </c>
-      <c r="T15" s="5">
-        <v>2.32171818181818</v>
-      </c>
-      <c r="U15" s="5">
-        <v>3.0289</v>
-      </c>
-    </row>
-    <row r="16" ht="17.25" spans="1:21">
+      <c r="S15" s="15">
+        <v>4.87497619047619</v>
+      </c>
+      <c r="T15" s="6">
+        <v>3.03794761904762</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="4">
-        <v>6.6027</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.254065</v>
-      </c>
-      <c r="D16" s="5">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6.5831</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.25165</v>
+      </c>
+      <c r="D16" s="6">
         <v>1.18023705</v>
       </c>
-      <c r="E16" s="5">
-        <v>0.2735</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="E16" s="6">
+        <v>0.286315789473684</v>
+      </c>
+      <c r="F16" s="6">
         <v>0.168387096774194</v>
       </c>
       <c r="G16" s="1">
@@ -2325,60 +2307,57 @@
       <c r="I16" s="1">
         <v>37.64</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="10">
         <v>24.9</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="10">
         <v>35.2</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="11">
         <v>19.9</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>13.3</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="12">
         <v>4.9</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="6">
         <v>6.6</v>
       </c>
       <c r="P16">
         <v>23.9516013588769</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="12">
         <v>13.6</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="12">
         <v>17.2</v>
       </c>
-      <c r="S16" s="12">
-        <v>4.87497619047619</v>
-      </c>
-      <c r="T16" s="5">
-        <v>3.0289</v>
-      </c>
-      <c r="U16" s="5">
-        <v>3.03794761904762</v>
-      </c>
-    </row>
-    <row r="17" ht="17.25" spans="1:21">
+      <c r="S16" s="15">
+        <v>3.7517</v>
+      </c>
+      <c r="T16" s="6">
+        <v>3.1113125</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="4">
-        <v>6.5831</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.25165</v>
-      </c>
-      <c r="D17" s="5">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
+        <v>6.5662</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.238897826086957</v>
+      </c>
+      <c r="D17" s="6">
         <v>1.21900005263158</v>
       </c>
-      <c r="E17" s="5">
-        <v>0.286315789473684</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="E17" s="6">
+        <v>0.259130434782609</v>
+      </c>
+      <c r="F17" s="6">
         <v>0.156785714285714</v>
       </c>
       <c r="G17" s="1">
@@ -2390,60 +2369,57 @@
       <c r="I17" s="1">
         <v>21.29</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="10">
         <v>24.9</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="10">
         <v>35.2</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="11">
         <v>11.6</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>14.9</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="12">
         <v>4.944</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="6">
         <v>7.23</v>
       </c>
       <c r="P17">
         <v>22.7499259040985</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="12">
         <v>14.5</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="12">
         <v>15.7</v>
       </c>
-      <c r="S17" s="12">
-        <v>3.7517</v>
-      </c>
-      <c r="T17" s="5">
-        <v>3.03794761904762</v>
-      </c>
-      <c r="U17" s="5">
-        <v>3.1113125</v>
-      </c>
-    </row>
-    <row r="18" ht="17.25" spans="1:21">
+      <c r="S17" s="15">
+        <v>2.38648260869565</v>
+      </c>
+      <c r="T17" s="6">
+        <v>2.90482608695652</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="4">
-        <v>6.5662</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.238897826086957</v>
-      </c>
-      <c r="D18" s="5">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5">
+        <v>6.5292</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.192377777777778</v>
+      </c>
+      <c r="D18" s="6">
         <v>1.20814765217391</v>
       </c>
-      <c r="E18" s="5">
-        <v>0.259130434782609</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18" s="6">
+        <v>0.2465</v>
+      </c>
+      <c r="F18" s="6">
         <v>0.138709677419355</v>
       </c>
       <c r="G18" s="1">
@@ -2455,60 +2431,57 @@
       <c r="I18" s="1">
         <v>26.42</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="10">
         <v>25</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="10">
         <v>34.1</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="11">
         <v>17.4</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>14.8</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="12">
         <v>5.383</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="6">
         <v>7.31</v>
       </c>
       <c r="P18">
         <v>22.956723729066</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="12">
         <v>15</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="12">
         <v>16.6</v>
       </c>
-      <c r="S18" s="12">
-        <v>2.38648260869565</v>
-      </c>
-      <c r="T18" s="5">
-        <v>3.1113125</v>
-      </c>
-      <c r="U18" s="5">
-        <v>2.90482608695652</v>
-      </c>
-    </row>
-    <row r="19" ht="17.25" spans="1:21">
+      <c r="S18" s="15">
+        <v>2.857065</v>
+      </c>
+      <c r="T18" s="6">
+        <v>2.83236</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4">
-        <v>6.5292</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.192377777777778</v>
-      </c>
-      <c r="D19" s="5">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6.4988</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.1678725</v>
+      </c>
+      <c r="D19" s="6">
         <v>1.24348765</v>
       </c>
-      <c r="E19" s="5">
-        <v>0.2465</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E19" s="6">
+        <v>0.188095238095238</v>
+      </c>
+      <c r="F19" s="6">
         <v>0.098</v>
       </c>
       <c r="G19" s="1">
@@ -2520,60 +2493,57 @@
       <c r="I19" s="1">
         <v>27.36</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="10">
         <v>25.4</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="10">
         <v>34.3</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="11">
         <v>17.1</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>13.4</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="12">
         <v>5.344</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="6">
         <v>6.82</v>
       </c>
       <c r="P19">
         <v>22.1940658206684</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="12">
         <v>12.9</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="12">
         <v>15.3</v>
       </c>
-      <c r="S19" s="12">
-        <v>2.857065</v>
-      </c>
-      <c r="T19" s="5">
-        <v>2.90482608695652</v>
-      </c>
-      <c r="U19" s="5">
-        <v>2.83236</v>
-      </c>
-    </row>
-    <row r="20" ht="17.25" spans="1:21">
+      <c r="S19" s="15">
+        <v>3.7231380952381</v>
+      </c>
+      <c r="T19" s="6">
+        <v>2.95482380952381</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="4">
-        <v>6.4988</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.1678725</v>
-      </c>
-      <c r="D20" s="5">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6.4778</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.161543181818182</v>
+      </c>
+      <c r="D20" s="6">
         <v>1.25799928571429</v>
       </c>
-      <c r="E20" s="5">
-        <v>0.188095238095238</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="E20" s="6">
+        <v>0.180909090909091</v>
+      </c>
+      <c r="F20" s="6">
         <v>0.0938709677419355</v>
       </c>
       <c r="G20" s="1">
@@ -2585,60 +2555,57 @@
       <c r="I20" s="1">
         <v>25.48</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="10">
         <v>25.8</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="10">
         <v>34.6</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="11">
         <v>16.9</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>13.3</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="12">
         <v>5.515</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="6">
         <v>6.79</v>
       </c>
       <c r="P20">
         <v>21.8171637061437</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="12">
         <v>12.7</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="12">
         <v>15.1</v>
       </c>
-      <c r="S20" s="12">
-        <v>3.7231380952381</v>
-      </c>
-      <c r="T20" s="5">
-        <v>2.83236</v>
-      </c>
-      <c r="U20" s="5">
-        <v>2.95482380952381</v>
-      </c>
-    </row>
-    <row r="21" ht="17.25" spans="1:21">
+      <c r="S20" s="15">
+        <v>5.89939047619048</v>
+      </c>
+      <c r="T20" s="6">
+        <v>3.33897142857143</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4">
-        <v>6.4778</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.161543181818182</v>
-      </c>
-      <c r="D21" s="5">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6.4614</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.159885714285714</v>
+      </c>
+      <c r="D21" s="6">
         <v>1.20973095454545</v>
       </c>
-      <c r="E21" s="5">
-        <v>0.180909090909091</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E21" s="6">
+        <v>0.185</v>
+      </c>
+      <c r="F21" s="6">
         <v>0.092</v>
       </c>
       <c r="G21" s="1">
@@ -2650,60 +2617,57 @@
       <c r="I21" s="1">
         <v>24</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="10">
         <v>25.6</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="10">
         <v>32.9</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="11">
         <v>17.7</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>15.1</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="12">
         <v>6.355</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="6">
         <v>7.12</v>
       </c>
       <c r="P21">
         <v>21.5728712311726</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="12">
         <v>13.1</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="12">
         <v>15.9</v>
       </c>
-      <c r="S21" s="12">
-        <v>5.89939047619048</v>
-      </c>
-      <c r="T21" s="5">
-        <v>2.95482380952381</v>
-      </c>
-      <c r="U21" s="5">
-        <v>3.33897142857143</v>
-      </c>
-    </row>
-    <row r="22" ht="17.25" spans="1:21">
+      <c r="S21" s="15">
+        <v>5.29689523809524</v>
+      </c>
+      <c r="T21" s="6">
+        <v>3.5914</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="1:20">
       <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="4">
-        <v>6.4614</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.159885714285714</v>
-      </c>
-      <c r="D22" s="5">
+        <v>40</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6.409</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.180386818181818</v>
+      </c>
+      <c r="D22" s="6">
         <v>1.25123255</v>
       </c>
-      <c r="E22" s="5">
-        <v>0.185</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="6">
+        <v>0.114782608695652</v>
+      </c>
+      <c r="F22" s="6">
         <v>0.0709677419354839</v>
       </c>
       <c r="G22" s="1">
@@ -2715,60 +2679,57 @@
       <c r="I22" s="1">
         <v>23.39</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="10">
         <v>25.4</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="10">
         <v>33.6</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="11">
         <v>17.2</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>14</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="12">
         <v>6.451</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="6">
         <v>7.54</v>
       </c>
       <c r="P22">
         <v>21.0479899477878</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="12">
         <v>11.6</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="12">
         <v>14.7</v>
       </c>
-      <c r="S22" s="12">
-        <v>5.29689523809524</v>
-      </c>
-      <c r="T22" s="5">
-        <v>3.33897142857143</v>
-      </c>
-      <c r="U22" s="5">
-        <v>3.5914</v>
-      </c>
-    </row>
-    <row r="23" ht="17.25" spans="1:21">
+      <c r="S22" s="15">
+        <v>3.96975652173913</v>
+      </c>
+      <c r="T22" s="6">
+        <v>3.67463913043478</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="1:20">
       <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4">
-        <v>6.409</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.180386818181818</v>
-      </c>
-      <c r="D23" s="5">
+        <v>41</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6.3833</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.1884</v>
+      </c>
+      <c r="D23" s="6">
         <v>1.1326617826087</v>
       </c>
-      <c r="E23" s="5">
-        <v>0.114782608695652</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="E23" s="6">
+        <v>0.104761904761905</v>
+      </c>
+      <c r="F23" s="6">
         <v>0.0958064516129032</v>
       </c>
       <c r="G23" s="1">
@@ -2780,60 +2741,57 @@
       <c r="I23" s="1">
         <v>23.54</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="10">
         <v>25</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="10">
         <v>33.2</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="11">
         <v>17</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>13.5</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="12">
         <v>6.151</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="6">
         <v>7.25</v>
       </c>
       <c r="P23">
         <v>20.7185310632104</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="12">
         <v>11.2</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="12">
         <v>13.5</v>
       </c>
-      <c r="S23" s="12">
-        <v>3.96975652173913</v>
-      </c>
-      <c r="T23" s="5">
-        <v>3.5914</v>
-      </c>
-      <c r="U23" s="5">
-        <v>3.67463913043478</v>
-      </c>
-    </row>
-    <row r="24" ht="17.25" spans="1:21">
+      <c r="S23" s="15">
+        <v>4.12729523809524</v>
+      </c>
+      <c r="T23" s="6">
+        <v>3.81059047619048</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="1:20">
       <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="4">
-        <v>6.3833</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.1884</v>
-      </c>
-      <c r="D24" s="5">
+        <v>42</v>
+      </c>
+      <c r="B24" s="5">
+        <v>6.3566</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.190740952380952</v>
+      </c>
+      <c r="D24" s="6">
         <v>1.11754538095238</v>
       </c>
-      <c r="E24" s="5">
-        <v>0.104761904761905</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="E24" s="6">
+        <v>0.1145</v>
+      </c>
+      <c r="F24" s="6">
         <v>0.084</v>
       </c>
       <c r="G24" s="1">
@@ -2845,60 +2803,57 @@
       <c r="I24" s="1">
         <v>22.7</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="10">
         <v>24.9</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="10">
         <v>32</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="11">
         <v>17.7</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>13.8</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="12">
         <v>6.067</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="6">
         <v>6.52</v>
       </c>
       <c r="P24">
         <v>19.3192709709068</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="12">
         <v>8.9</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="12">
         <v>13</v>
       </c>
-      <c r="S24" s="12">
-        <v>4.12729523809524</v>
-      </c>
-      <c r="T24" s="5">
-        <v>3.67463913043478</v>
-      </c>
-      <c r="U24" s="5">
-        <v>3.81059047619048</v>
-      </c>
-    </row>
-    <row r="25" ht="17.25" spans="1:21">
+      <c r="S24" s="15">
+        <v>3.95769444444444</v>
+      </c>
+      <c r="T24" s="6">
+        <v>3.23395555555556</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="4">
-        <v>6.3566</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.190740952380952</v>
-      </c>
-      <c r="D25" s="5">
+        <v>43</v>
+      </c>
+      <c r="B25" s="5">
+        <v>6.3408</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.192448636363636</v>
+      </c>
+      <c r="D25" s="6">
         <v>1.1515930952381</v>
       </c>
-      <c r="E25" s="5">
-        <v>0.1145</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="E25" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="F25" s="6">
         <v>0.0706451612903226</v>
       </c>
       <c r="G25" s="1">
@@ -2910,60 +2865,57 @@
       <c r="I25" s="1">
         <v>21.96</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="10">
         <v>24.9</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="10">
         <v>31.1</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="11">
         <v>17.2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>13.2</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="12">
         <v>5.495</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="6">
         <v>5</v>
       </c>
       <c r="P25">
         <v>18.9671793817321</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="12">
         <v>8.4</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="12">
         <v>12.9</v>
       </c>
-      <c r="S25" s="12">
-        <v>3.95769444444444</v>
-      </c>
-      <c r="T25" s="5">
-        <v>3.81059047619048</v>
-      </c>
-      <c r="U25" s="5">
-        <v>3.23395555555556</v>
-      </c>
-    </row>
-    <row r="26" ht="17.25" spans="1:21">
+      <c r="S25" s="15">
+        <v>3.75997272727273</v>
+      </c>
+      <c r="T25" s="6">
+        <v>2.73421818181818</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="1:20">
       <c r="A26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="4">
-        <v>6.3408</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.192448636363636</v>
-      </c>
-      <c r="D26" s="5">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <v>6.3281</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.2029985</v>
+      </c>
+      <c r="D26" s="6">
         <v>1.18043328571429</v>
       </c>
-      <c r="E26" s="5">
-        <v>0.112</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="E26" s="6">
+        <v>0.115238095238095</v>
+      </c>
+      <c r="F26" s="6">
         <v>0.081</v>
       </c>
       <c r="G26" s="1">
@@ -2975,60 +2927,57 @@
       <c r="I26" s="1">
         <v>21.08</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="10">
         <v>24.5</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="10">
         <v>29.9</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="11">
         <v>17.3</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>12.4</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="12">
         <v>4.225</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="6">
         <v>2.72</v>
       </c>
       <c r="P26">
         <v>18.5307919910457</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="12">
         <v>7.8</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="12">
         <v>12.7</v>
       </c>
-      <c r="S26" s="12">
-        <v>3.75997272727273</v>
-      </c>
-      <c r="T26" s="5">
-        <v>3.23395555555556</v>
-      </c>
-      <c r="U26" s="5">
-        <v>2.73421818181818</v>
-      </c>
-    </row>
-    <row r="27" ht="17.25" spans="1:21">
+      <c r="S26" s="15">
+        <v>3.89962173913043</v>
+      </c>
+      <c r="T26" s="6">
+        <v>2.68954782608696</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="4">
-        <v>6.3281</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.2029985</v>
-      </c>
-      <c r="D27" s="5">
+        <v>45</v>
+      </c>
+      <c r="B27" s="5">
+        <v>6.3168</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.20142380952381</v>
+      </c>
+      <c r="D27" s="6">
         <v>1.20756828571429</v>
       </c>
-      <c r="E27" s="5">
-        <v>0.115238095238095</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="E27" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="F27" s="6">
         <v>0.0716129032258065</v>
       </c>
       <c r="G27" s="1">
@@ -3040,60 +2989,57 @@
       <c r="I27" s="1">
         <v>20.32</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="10">
         <v>23.8</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="10">
         <v>27.9</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="11">
         <v>18.1</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>12.8</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="12">
         <v>4.07</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="6">
         <v>1.69</v>
       </c>
       <c r="P27">
         <v>18.5259369760581</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="12">
         <v>7.9</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="12">
         <v>13.6</v>
       </c>
-      <c r="S27" s="12">
-        <v>3.89962173913043</v>
-      </c>
-      <c r="T27" s="5">
-        <v>2.73421818181818</v>
-      </c>
-      <c r="U27" s="5">
-        <v>2.68954782608696</v>
-      </c>
-    </row>
-    <row r="28" ht="17.25" spans="1:21">
+      <c r="S27" s="15">
+        <v>4.91682941176471</v>
+      </c>
+      <c r="T27" s="6">
+        <v>2.78432352941176</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:20">
       <c r="A28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="4">
-        <v>6.3168</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.20142380952381</v>
-      </c>
-      <c r="D28" s="5">
+        <v>46</v>
+      </c>
+      <c r="B28" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.191461904761905</v>
+      </c>
+      <c r="D28" s="6">
         <v>1.2550892</v>
       </c>
-      <c r="E28" s="5">
-        <v>0.115</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="E28" s="6">
+        <v>0.161</v>
+      </c>
+      <c r="F28" s="6">
         <v>0.0819354838709677</v>
       </c>
       <c r="G28" s="1">
@@ -3105,60 +3051,57 @@
       <c r="I28" s="1">
         <v>-0.55</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="10">
         <v>21.5</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="10">
         <v>27.8</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="11">
         <v>13.1</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>2.8</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="12">
         <v>4.5</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="6">
         <v>0.73</v>
       </c>
       <c r="P28">
         <v>16.9683688085101</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="12">
         <v>3.1</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="12">
         <v>12.4</v>
       </c>
-      <c r="S28" s="12">
-        <v>4.91682941176471</v>
-      </c>
-      <c r="T28" s="5">
-        <v>2.68954782608696</v>
-      </c>
-      <c r="U28" s="5">
-        <v>2.78432352941176</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" spans="1:21">
+      <c r="S28" s="15">
+        <v>4.16901904761905</v>
+      </c>
+      <c r="T28" s="6">
+        <v>2.90668095238095</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:20">
       <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.191461904761905</v>
-      </c>
-      <c r="D29" s="5">
+        <v>47</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6.3004</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.189340909090909</v>
+      </c>
+      <c r="D29" s="6">
         <v>1.28890495</v>
       </c>
-      <c r="E29" s="5">
-        <v>0.161</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="E29" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="F29" s="6">
         <v>0.103793103448276</v>
       </c>
       <c r="G29" s="1">
@@ -3170,60 +3113,57 @@
       <c r="I29" s="1">
         <v>6.83</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="10">
         <v>21.5</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="10">
         <v>27.8</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="11">
         <v>16.4</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>21.3</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="12">
         <v>3.2</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="6">
         <v>0.03</v>
       </c>
       <c r="P29">
         <v>17.3682998485684</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="12">
         <v>4.3</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="12">
         <v>13</v>
       </c>
-      <c r="S29" s="12">
-        <v>4.16901904761905</v>
-      </c>
-      <c r="T29" s="5">
-        <v>2.78432352941176</v>
-      </c>
-      <c r="U29" s="5">
-        <v>2.90668095238095</v>
-      </c>
-    </row>
-    <row r="30" ht="17.25" spans="1:21">
+      <c r="S29" s="15">
+        <v>3.14909565217391</v>
+      </c>
+      <c r="T29" s="6">
+        <v>2.87549565217391</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="1:20">
       <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="4">
-        <v>6.3004</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.189340909090909</v>
-      </c>
-      <c r="D30" s="5">
+        <v>48</v>
+      </c>
+      <c r="B30" s="5">
+        <v>6.2966</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.189805263157895</v>
+      </c>
+      <c r="D30" s="6">
         <v>1.3079465</v>
       </c>
-      <c r="E30" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="E30" s="6">
+        <v>0.178571428571429</v>
+      </c>
+      <c r="F30" s="6">
         <v>0.126774193548387</v>
       </c>
       <c r="G30" s="1">
@@ -3235,60 +3175,57 @@
       <c r="I30" s="1">
         <v>7.59</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="10">
         <v>20.9</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="10">
         <v>23.5</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="11">
         <v>15.2</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="6">
         <v>11.9</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="12">
         <v>3.6</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="6">
         <v>-0.32</v>
       </c>
       <c r="P30">
         <v>17.0047379431528</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="12">
         <v>4.4</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="12">
         <v>13.4</v>
       </c>
-      <c r="S30" s="12">
-        <v>3.14909565217391</v>
-      </c>
-      <c r="T30" s="5">
-        <v>2.90668095238095</v>
-      </c>
-      <c r="U30" s="5">
-        <v>2.87549565217391</v>
-      </c>
-    </row>
-    <row r="31" ht="17.25" spans="1:21">
+      <c r="S30" s="15">
+        <v>3.82568947368421</v>
+      </c>
+      <c r="T30" s="6">
+        <v>2.86148947368421</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="4">
-        <v>6.2966</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0.189805263157895</v>
-      </c>
-      <c r="D31" s="5">
+        <v>49</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6.3062</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.190531818181818</v>
+      </c>
+      <c r="D31" s="6">
         <v>1.3030754</v>
       </c>
-      <c r="E31" s="5">
-        <v>0.178571428571429</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="E31" s="6">
+        <v>0.191818181818182</v>
+      </c>
+      <c r="F31" s="6">
         <v>0.139333333333333</v>
       </c>
       <c r="G31" s="1">
@@ -3300,60 +3237,57 @@
       <c r="I31" s="1">
         <v>6.82</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="10">
         <v>20.2</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="10">
         <v>18.7</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="11">
         <v>14.1</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="6">
         <v>9.3</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="12">
         <v>3.4</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="6">
         <v>-0.7</v>
       </c>
       <c r="P31">
         <v>16.1547609503194</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="12">
         <v>3.1</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="12">
         <v>12.8</v>
       </c>
-      <c r="S31" s="12">
-        <v>3.82568947368421</v>
-      </c>
-      <c r="T31" s="5">
-        <v>2.87549565217391</v>
-      </c>
-      <c r="U31" s="5">
-        <v>2.86148947368421</v>
-      </c>
-    </row>
-    <row r="32" ht="17.25" spans="1:21">
+      <c r="S31" s="15">
+        <v>2.95259545454545</v>
+      </c>
+      <c r="T31" s="6">
+        <v>2.52665454545455</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="1:20">
       <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="4">
-        <v>6.3062</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.190531818181818</v>
-      </c>
-      <c r="D32" s="5">
+        <v>50</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6.3178</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.194647368421053</v>
+      </c>
+      <c r="D32" s="6">
         <v>1.27210845454545</v>
       </c>
-      <c r="E32" s="5">
-        <v>0.191818181818182</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E32" s="6">
+        <v>0.189047619047619</v>
+      </c>
+      <c r="F32" s="6">
         <v>0.155806451612903</v>
       </c>
       <c r="G32" s="1">
@@ -3365,60 +3299,57 @@
       <c r="I32" s="1">
         <v>8.69</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="10">
         <v>20.1</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="10">
         <v>18.5</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="11">
         <v>13.8</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="6">
         <v>9.6</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="12">
         <v>3</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="6">
         <v>-1.4</v>
       </c>
       <c r="P32">
         <v>15.9999420468525</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="12">
         <v>3.5</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="12">
         <v>13.2</v>
       </c>
-      <c r="S32" s="12">
-        <v>2.95259545454545</v>
-      </c>
-      <c r="T32" s="5">
-        <v>2.86148947368421</v>
-      </c>
-      <c r="U32" s="5">
-        <v>2.52665454545455</v>
-      </c>
-    </row>
-    <row r="33" ht="17.25" spans="1:21">
+      <c r="S32" s="15">
+        <v>3.12871</v>
+      </c>
+      <c r="T32" s="6">
+        <v>2.27226</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="1:20">
       <c r="A33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="4">
-        <v>6.3178</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0.194647368421053</v>
-      </c>
-      <c r="D33" s="5">
+        <v>51</v>
+      </c>
+      <c r="B33" s="5">
+        <v>6.3235</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.198736363636364</v>
+      </c>
+      <c r="D33" s="6">
         <v>1.25449047619048</v>
       </c>
-      <c r="E33" s="5">
-        <v>0.189047619047619</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="E33" s="6">
+        <v>0.185714285714286</v>
+      </c>
+      <c r="F33" s="6">
         <v>0.161666666666667</v>
       </c>
       <c r="G33" s="1">
@@ -3430,60 +3361,57 @@
       <c r="I33" s="1">
         <v>9.13</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="10">
         <v>20.4</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="10">
         <v>16.6</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="11">
         <v>13.7</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="6">
         <v>9.5</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="12">
         <v>2.2</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="6">
         <v>-2.08</v>
       </c>
       <c r="P33">
         <v>16.6737868893543</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="12">
         <v>4.7</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="12">
         <v>13.6</v>
       </c>
-      <c r="S33" s="12">
-        <v>3.12871</v>
-      </c>
-      <c r="T33" s="5">
-        <v>2.52665454545455</v>
-      </c>
-      <c r="U33" s="5">
-        <v>2.27226</v>
-      </c>
-    </row>
-    <row r="34" ht="17.25" spans="1:21">
+      <c r="S33" s="15">
+        <v>3.48514545454545</v>
+      </c>
+      <c r="T33" s="6">
+        <v>2.27098181818182</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:20">
       <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="4">
-        <v>6.3235</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0.198736363636364</v>
-      </c>
-      <c r="D34" s="5">
+        <v>52</v>
+      </c>
+      <c r="B34" s="5">
+        <v>6.3404</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.187454545454545</v>
+      </c>
+      <c r="D34" s="6">
         <v>1.28141019047619</v>
       </c>
-      <c r="E34" s="5">
-        <v>0.185714285714286</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="E34" s="6">
+        <v>0.183478260869565</v>
+      </c>
+      <c r="F34" s="6">
         <v>0.156451612903226</v>
       </c>
       <c r="G34" s="1">
@@ -3495,60 +3423,57 @@
       <c r="I34" s="1">
         <v>7.77</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="10">
         <v>20.4</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="10">
         <v>15.4</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="11">
         <v>13.1</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="6">
         <v>9.2</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="12">
         <v>1.8</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="6">
         <v>-2.87</v>
       </c>
       <c r="P34">
         <v>17.2192134107028</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="12">
         <v>4.6</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="12">
         <v>13.9</v>
       </c>
-      <c r="S34" s="12">
-        <v>3.48514545454545</v>
-      </c>
-      <c r="T34" s="5">
-        <v>2.27226</v>
-      </c>
-      <c r="U34" s="5">
-        <v>2.27098181818182</v>
-      </c>
-    </row>
-    <row r="35" ht="17.25" spans="1:21">
+      <c r="S34" s="15">
+        <v>3.48449565217391</v>
+      </c>
+      <c r="T34" s="6">
+        <v>2.50455652173913</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="1:20">
       <c r="A35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="4">
-        <v>6.3404</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0.187454545454545</v>
-      </c>
-      <c r="D35" s="5">
+        <v>53</v>
+      </c>
+      <c r="B35" s="5">
+        <v>6.3395</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.183625</v>
+      </c>
+      <c r="D35" s="6">
         <v>1.31349026086957</v>
       </c>
-      <c r="E35" s="5">
-        <v>0.183478260869565</v>
-      </c>
-      <c r="F35" s="5">
+      <c r="E35" s="6">
+        <v>0.175789473684211</v>
+      </c>
+      <c r="F35" s="6">
         <v>0.132258064516129</v>
       </c>
       <c r="G35" s="1">
@@ -3560,60 +3485,57 @@
       <c r="I35" s="1">
         <v>7.05</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="10">
         <v>20.2</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="10">
         <v>15.6</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="11">
         <v>13.2</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>8.9</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="12">
         <v>2</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="6">
         <v>-3.48</v>
       </c>
       <c r="P35">
         <v>17.2045212600208</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="12">
         <v>4.5</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="12">
         <v>13.5</v>
       </c>
-      <c r="S35" s="12">
-        <v>3.48449565217391</v>
-      </c>
-      <c r="T35" s="5">
-        <v>2.27098181818182</v>
-      </c>
-      <c r="U35" s="5">
-        <v>2.50455652173913</v>
-      </c>
-    </row>
-    <row r="36" ht="17.25" spans="1:21">
+      <c r="S35" s="15">
+        <v>3.49676666666667</v>
+      </c>
+      <c r="T35" s="6">
+        <v>2.7480380952381</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:20">
       <c r="A36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="4">
-        <v>6.3395</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0.183625</v>
-      </c>
-      <c r="D36" s="5">
+        <v>54</v>
+      </c>
+      <c r="B36" s="5">
+        <v>6.3144</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.179552173913043</v>
+      </c>
+      <c r="D36" s="6">
         <v>1.34184984210526</v>
       </c>
-      <c r="E36" s="5">
-        <v>0.175789473684211</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="E36" s="6">
+        <v>0.17952380952381</v>
+      </c>
+      <c r="F36" s="6">
         <v>0.144333333333333</v>
       </c>
       <c r="G36" s="1">
@@ -3625,60 +3547,57 @@
       <c r="I36" s="1">
         <v>7.38</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="10">
         <v>20.5</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="10">
         <v>15.4</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="11">
         <v>14.2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>9.2</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="12">
         <v>1.9</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="6">
         <v>-3.55</v>
       </c>
       <c r="P36">
         <v>18.6525325102464</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="12">
         <v>7.3</v>
       </c>
-      <c r="R36" s="10">
+      <c r="R36" s="12">
         <v>14.8</v>
       </c>
-      <c r="S36" s="12">
-        <v>3.49676666666667</v>
-      </c>
-      <c r="T36" s="5">
-        <v>2.50455652173913</v>
-      </c>
-      <c r="U36" s="5">
-        <v>2.7480380952381</v>
-      </c>
-    </row>
-    <row r="37" ht="17.25" spans="1:21">
+      <c r="S36" s="15">
+        <v>3.21897222222222</v>
+      </c>
+      <c r="T36" s="6">
+        <v>2.86694444444444</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="1:20">
       <c r="A37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="4">
-        <v>6.3144</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0.179552173913043</v>
-      </c>
-      <c r="D37" s="5">
+        <v>55</v>
+      </c>
+      <c r="B37" s="5">
+        <v>6.2953</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.180609090909091</v>
+      </c>
+      <c r="D37" s="6">
         <v>1.33806452380952</v>
       </c>
-      <c r="E37" s="5">
-        <v>0.17952380952381</v>
-      </c>
-      <c r="F37" s="5">
+      <c r="E37" s="6">
+        <v>0.1785</v>
+      </c>
+      <c r="F37" s="6">
         <v>0.158387096774194</v>
       </c>
       <c r="G37" s="1">
@@ -3690,60 +3609,57 @@
       <c r="I37" s="1">
         <v>7.8</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="10">
         <v>20.7</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="10">
         <v>15.4</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="11">
         <v>14.5</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>9.6</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="12">
         <v>1.7</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="6">
         <v>-2.76</v>
       </c>
       <c r="P37">
         <v>19.0937692565892</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="12">
         <v>6.1</v>
       </c>
-      <c r="R37" s="10">
+      <c r="R37" s="12">
         <v>14.1</v>
       </c>
-      <c r="S37" s="12">
-        <v>3.21897222222222</v>
-      </c>
-      <c r="T37" s="5">
-        <v>2.7480380952381</v>
-      </c>
-      <c r="U37" s="5">
-        <v>2.86694444444444</v>
-      </c>
-    </row>
-    <row r="38" ht="17.25" spans="1:21">
+      <c r="S37" s="15">
+        <v>3.19744090909091</v>
+      </c>
+      <c r="T37" s="6">
+        <v>2.89101363636364</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:20">
       <c r="A38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="4">
-        <v>6.2953</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0.180609090909091</v>
-      </c>
-      <c r="D38" s="5">
+        <v>56</v>
+      </c>
+      <c r="B38" s="5">
+        <v>6.29</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.187515789473684</v>
+      </c>
+      <c r="D38" s="6">
         <v>1.28964423809524</v>
       </c>
-      <c r="E38" s="5">
-        <v>0.1785</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="E38" s="6">
+        <v>0.1585</v>
+      </c>
+      <c r="F38" s="6">
         <v>0.160666666666667</v>
       </c>
       <c r="G38" s="1">
@@ -3755,60 +3671,57 @@
       <c r="I38" s="1">
         <v>7.3</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="10">
         <v>20.7</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="10">
         <v>16.7</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="11">
         <v>14.9</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="6">
         <v>10.1</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="12">
         <v>2</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="6">
         <v>-2.2</v>
       </c>
       <c r="P38">
         <v>19.0708271813804</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="12">
         <v>5.5</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R38" s="12">
         <v>13.9</v>
       </c>
-      <c r="S38" s="12">
-        <v>3.19744090909091</v>
-      </c>
-      <c r="T38" s="5">
-        <v>2.86694444444444</v>
-      </c>
-      <c r="U38" s="5">
-        <v>2.89101363636364</v>
-      </c>
-    </row>
-    <row r="39" ht="17.25" spans="1:21">
+      <c r="S38" s="15">
+        <v>3.29707619047619</v>
+      </c>
+      <c r="T38" s="6">
+        <v>2.90440952380952</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" spans="1:20">
       <c r="A39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="4">
-        <v>6.29</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0.187515789473684</v>
-      </c>
-      <c r="D39" s="5">
+        <v>57</v>
+      </c>
+      <c r="B39" s="5">
+        <v>6.2787</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.179472727272727</v>
+      </c>
+      <c r="D39" s="6">
         <v>1.31441825</v>
       </c>
-      <c r="E39" s="5">
-        <v>0.1585</v>
-      </c>
-      <c r="F39" s="5">
+      <c r="E39" s="6">
+        <v>0.145238095238095</v>
+      </c>
+      <c r="F39" s="6">
         <v>0.164516129032258</v>
       </c>
       <c r="G39" s="1">
@@ -3820,60 +3733,57 @@
       <c r="I39" s="1">
         <v>7.92</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="10">
         <v>20.6</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="10">
         <v>16.2</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="11">
         <v>15.2</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>10.3</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N39" s="12">
         <v>2.5</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="6">
         <v>-1.94</v>
       </c>
       <c r="P39">
         <v>19.2057781086393</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="12">
         <v>6.5</v>
       </c>
-      <c r="R39" s="10">
+      <c r="R39" s="12">
         <v>13.8</v>
       </c>
-      <c r="S39" s="12">
-        <v>3.29707619047619</v>
-      </c>
-      <c r="T39" s="5">
-        <v>2.89101363636364</v>
-      </c>
-      <c r="U39" s="5">
-        <v>2.90440952380952</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" spans="1:21">
+      <c r="S39" s="15">
+        <v>3.04973636363636</v>
+      </c>
+      <c r="T39" s="6">
+        <v>2.83461363636364</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="1:20">
       <c r="A40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="4">
-        <v>6.2787</v>
-      </c>
-      <c r="C40" s="5">
-        <v>0.179472727272727</v>
-      </c>
-      <c r="D40" s="5">
+        <v>58</v>
+      </c>
+      <c r="B40" s="5">
+        <v>6.2842</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.17315</v>
+      </c>
+      <c r="D40" s="6">
         <v>1.36153228571429</v>
       </c>
-      <c r="E40" s="5">
-        <v>0.145238095238095</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="E40" s="6">
+        <v>0.157368421052632</v>
+      </c>
+      <c r="F40" s="6">
         <v>0.14258064516129</v>
       </c>
       <c r="G40" s="1">
@@ -3885,60 +3795,57 @@
       <c r="I40" s="1">
         <v>24.97</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="10">
         <v>21.2</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="10">
         <v>22.8</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="11">
         <v>12.2999</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="6">
         <v>17.7</v>
       </c>
-      <c r="N40" s="10">
+      <c r="N40" s="12">
         <v>2.0305</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="6">
         <v>-1.64</v>
       </c>
       <c r="P40">
         <v>20.869661544093</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="Q40" s="12">
         <v>15.3</v>
       </c>
-      <c r="R40" s="10">
+      <c r="R40" s="12">
         <v>15.9</v>
       </c>
-      <c r="S40" s="12">
-        <v>3.04973636363636</v>
-      </c>
-      <c r="T40" s="5">
-        <v>2.90440952380952</v>
-      </c>
-      <c r="U40" s="5">
-        <v>2.83461363636364</v>
-      </c>
-    </row>
-    <row r="41" ht="17.25" spans="1:21">
+      <c r="S40" s="15">
+        <v>3.39664705882353</v>
+      </c>
+      <c r="T40" s="6">
+        <v>2.74642352941176</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="1:20">
       <c r="A41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="4">
-        <v>6.2842</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0.17315</v>
-      </c>
-      <c r="D41" s="5">
+        <v>59</v>
+      </c>
+      <c r="B41" s="5">
+        <v>6.2743</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.1731</v>
+      </c>
+      <c r="D41" s="6">
         <v>1.396733</v>
       </c>
-      <c r="E41" s="5">
-        <v>0.157368421052632</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="E41" s="6">
+        <v>0.1475</v>
+      </c>
+      <c r="F41" s="6">
         <v>0.145</v>
       </c>
       <c r="G41" s="1">
@@ -3950,60 +3857,57 @@
       <c r="I41" s="1">
         <v>23.58</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="10">
         <v>21.2</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="10">
         <v>22.8</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="11">
         <v>12.2999</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="6">
         <v>2.2</v>
       </c>
-      <c r="N41" s="10">
+      <c r="N41" s="12">
         <v>3.2198</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="6">
         <v>-1.63</v>
       </c>
       <c r="P41">
         <v>20.6433768006678</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="12">
         <v>9.5</v>
       </c>
-      <c r="R41" s="10">
+      <c r="R41" s="12">
         <v>15.2</v>
       </c>
-      <c r="S41" s="12">
-        <v>3.39664705882353</v>
-      </c>
-      <c r="T41" s="5">
-        <v>2.83461363636364</v>
-      </c>
-      <c r="U41" s="5">
-        <v>2.74642352941176</v>
-      </c>
-    </row>
-    <row r="42" ht="17.25" spans="1:21">
+      <c r="S41" s="15">
+        <v>3.15010476190476</v>
+      </c>
+      <c r="T41" s="6">
+        <v>2.74477619047619</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="1:20">
       <c r="A42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="4">
-        <v>6.2743</v>
-      </c>
-      <c r="C42" s="5">
-        <v>0.1731</v>
-      </c>
-      <c r="D42" s="5">
+        <v>60</v>
+      </c>
+      <c r="B42" s="5">
+        <v>6.2471</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.172104761904762</v>
+      </c>
+      <c r="D42" s="6">
         <v>1.4418258</v>
       </c>
-      <c r="E42" s="5">
-        <v>0.1475</v>
-      </c>
-      <c r="F42" s="5">
+      <c r="E42" s="6">
+        <v>0.124545454545455</v>
+      </c>
+      <c r="F42" s="6">
         <v>0.143548387096774</v>
       </c>
       <c r="G42" s="1">
@@ -4015,60 +3919,57 @@
       <c r="I42" s="1">
         <v>18.34</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="10">
         <v>20.9</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="10">
         <v>20.2</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="11">
         <v>12.6003</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>8.9</v>
       </c>
-      <c r="N42" s="10">
+      <c r="N42" s="12">
         <v>2.0696</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="6">
         <v>-1.92</v>
       </c>
       <c r="P42">
         <v>20.985131019657</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="Q42" s="12">
         <v>11.9</v>
       </c>
-      <c r="R42" s="10">
+      <c r="R42" s="12">
         <v>15.7</v>
       </c>
-      <c r="S42" s="12">
-        <v>3.15010476190476</v>
-      </c>
-      <c r="T42" s="5">
-        <v>2.74642352941176</v>
-      </c>
-      <c r="U42" s="5">
-        <v>2.74477619047619</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" spans="1:21">
+      <c r="S42" s="15">
+        <v>3.3661619047619</v>
+      </c>
+      <c r="T42" s="6">
+        <v>2.7344</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="1:20">
       <c r="A43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="4">
-        <v>6.2471</v>
-      </c>
-      <c r="C43" s="5">
-        <v>0.172104761904762</v>
-      </c>
-      <c r="D43" s="5">
+        <v>61</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6.197</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.163838095238095</v>
+      </c>
+      <c r="D43" s="6">
         <v>1.46759090909091</v>
       </c>
-      <c r="E43" s="5">
-        <v>0.124545454545455</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="E43" s="6">
+        <v>0.118636363636364</v>
+      </c>
+      <c r="F43" s="6">
         <v>0.145</v>
       </c>
       <c r="G43" s="1">
@@ -4080,60 +3981,57 @@
       <c r="I43" s="1">
         <v>17.31</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="10">
         <v>20.6</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="10">
         <v>21.1</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="11">
         <v>12.8</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>9.3</v>
       </c>
-      <c r="N43" s="10">
+      <c r="N43" s="12">
         <v>2.3861</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="6">
         <v>-2.62</v>
       </c>
       <c r="P43">
         <v>21.6718682954494</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="Q43" s="12">
         <v>11.9</v>
       </c>
-      <c r="R43" s="10">
+      <c r="R43" s="12">
         <v>16.1</v>
       </c>
-      <c r="S43" s="12">
-        <v>3.3661619047619</v>
-      </c>
-      <c r="T43" s="5">
-        <v>2.74477619047619</v>
-      </c>
-      <c r="U43" s="5">
-        <v>2.7344</v>
-      </c>
-    </row>
-    <row r="44" ht="17.25" spans="1:21">
+      <c r="S43" s="15">
+        <v>3.57146818181818</v>
+      </c>
+      <c r="T43" s="6">
+        <v>2.84283636363636</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" spans="1:20">
       <c r="A44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="4">
-        <v>6.197</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0.163838095238095</v>
-      </c>
-      <c r="D44" s="5">
+        <v>62</v>
+      </c>
+      <c r="B44" s="5">
+        <v>6.1718</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.159646</v>
+      </c>
+      <c r="D44" s="6">
         <v>1.51721804545455</v>
       </c>
-      <c r="E44" s="5">
-        <v>0.118636363636364</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="E44" s="6">
+        <v>0.142</v>
+      </c>
+      <c r="F44" s="6">
         <v>0.109032258064516</v>
       </c>
       <c r="G44" s="1">
@@ -4145,60 +4043,57 @@
       <c r="I44" s="1">
         <v>13.47</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="10">
         <v>20.4</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="10">
         <v>20.6</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="11">
         <v>12.8922</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="6">
         <v>9.2</v>
       </c>
-      <c r="N44" s="10">
+      <c r="N44" s="12">
         <v>2.0981</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="6">
         <v>-2.87</v>
       </c>
       <c r="P44">
         <v>21.4404044005355</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q44" s="12">
         <v>11.3</v>
       </c>
-      <c r="R44" s="10">
+      <c r="R44" s="12">
         <v>15.8</v>
       </c>
-      <c r="S44" s="12">
-        <v>3.57146818181818</v>
-      </c>
-      <c r="T44" s="5">
-        <v>2.7344</v>
-      </c>
-      <c r="U44" s="5">
-        <v>2.84283636363636</v>
-      </c>
-    </row>
-    <row r="45" ht="17.25" spans="1:21">
+      <c r="S44" s="15">
+        <v>6.91964210526316</v>
+      </c>
+      <c r="T44" s="6">
+        <v>3.23626842105263</v>
+      </c>
+    </row>
+    <row r="45" ht="17.25" spans="1:20">
       <c r="A45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="4">
-        <v>6.1718</v>
-      </c>
-      <c r="C45" s="5">
-        <v>0.159646</v>
-      </c>
-      <c r="D45" s="5">
+        <v>63</v>
+      </c>
+      <c r="B45" s="5">
+        <v>6.1725</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.156116956521739</v>
+      </c>
+      <c r="D45" s="6">
         <v>1.50357545</v>
       </c>
-      <c r="E45" s="5">
-        <v>0.142</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="E45" s="6">
+        <v>0.121818181818182</v>
+      </c>
+      <c r="F45" s="6">
         <v>0.0936666666666667</v>
       </c>
       <c r="G45" s="1">
@@ -4210,60 +4105,57 @@
       <c r="I45" s="1">
         <v>10.35</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="10">
         <v>20.1</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="10">
         <v>20.3</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="11">
         <v>13.3125</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="6">
         <v>8.9</v>
       </c>
-      <c r="N45" s="10">
+      <c r="N45" s="12">
         <v>2.6684</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="6">
         <v>-2.7</v>
       </c>
       <c r="P45">
         <v>20.1890234198058</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q45" s="12">
         <v>9.1</v>
       </c>
-      <c r="R45" s="10">
+      <c r="R45" s="12">
         <v>14</v>
       </c>
-      <c r="S45" s="12">
-        <v>6.91964210526316</v>
-      </c>
-      <c r="T45" s="5">
-        <v>2.84283636363636</v>
-      </c>
-      <c r="U45" s="5">
-        <v>3.23626842105263</v>
-      </c>
-    </row>
-    <row r="46" ht="17.25" spans="1:21">
+      <c r="S45" s="15">
+        <v>4.13822608695652</v>
+      </c>
+      <c r="T45" s="6">
+        <v>3.46822173913044</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" spans="1:20">
       <c r="A46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="4">
-        <v>6.1725</v>
-      </c>
-      <c r="C46" s="5">
-        <v>0.156116956521739</v>
-      </c>
-      <c r="D46" s="5">
+        <v>64</v>
+      </c>
+      <c r="B46" s="5">
+        <v>6.1708</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.149314285714286</v>
+      </c>
+      <c r="D46" s="6">
         <v>1.53902113636364</v>
       </c>
-      <c r="E46" s="5">
-        <v>0.121818181818182</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="E46" s="6">
+        <v>0.126818181818182</v>
+      </c>
+      <c r="F46" s="6">
         <v>0.0925806451612903</v>
       </c>
       <c r="G46" s="1">
@@ -4275,60 +4167,57 @@
       <c r="I46" s="1">
         <v>9.52</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="10">
         <v>20.1</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="10">
         <v>20.5</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="11">
         <v>13.2123</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>9.7</v>
       </c>
-      <c r="N46" s="10">
+      <c r="N46" s="12">
         <v>2.6741</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="6">
         <v>-2.27</v>
       </c>
       <c r="P46">
         <v>19.6989114830562</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="Q46" s="12">
         <v>9.7</v>
       </c>
-      <c r="R46" s="10">
+      <c r="R46" s="12">
         <v>14.5</v>
       </c>
-      <c r="S46" s="12">
-        <v>4.13822608695652</v>
-      </c>
-      <c r="T46" s="5">
-        <v>3.23626842105263</v>
-      </c>
-      <c r="U46" s="5">
-        <v>3.46822173913044</v>
-      </c>
-    </row>
-    <row r="47" ht="17.25" spans="1:21">
+      <c r="S46" s="15">
+        <v>4.08705</v>
+      </c>
+      <c r="T46" s="6">
+        <v>3.53679090909091</v>
+      </c>
+    </row>
+    <row r="47" ht="17.25" spans="1:20">
       <c r="A47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="4">
-        <v>6.1708</v>
-      </c>
-      <c r="C47" s="5">
-        <v>0.149314285714286</v>
-      </c>
-      <c r="D47" s="5">
+        <v>65</v>
+      </c>
+      <c r="B47" s="5">
+        <v>6.1588</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.143232380952381</v>
+      </c>
+      <c r="D47" s="6">
         <v>1.51953477272727</v>
       </c>
-      <c r="E47" s="5">
-        <v>0.126818181818182</v>
-      </c>
-      <c r="F47" s="5">
+      <c r="E47" s="6">
+        <v>0.1185</v>
+      </c>
+      <c r="F47" s="6">
         <v>0.0829032258064516</v>
       </c>
       <c r="G47" s="1">
@@ -4340,60 +4229,57 @@
       <c r="I47" s="1">
         <v>9.19</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="10">
         <v>20.3</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="10">
         <v>19.3</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="11">
         <v>13.3701</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="6">
         <v>10.4</v>
       </c>
-      <c r="N47" s="10">
+      <c r="N47" s="12">
         <v>2.5666</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="6">
         <v>-1.62</v>
       </c>
       <c r="P47">
         <v>19.797506266888</v>
       </c>
-      <c r="Q47" s="10">
+      <c r="Q47" s="12">
         <v>9.9</v>
       </c>
-      <c r="R47" s="10">
+      <c r="R47" s="12">
         <v>14.7</v>
       </c>
-      <c r="S47" s="12">
-        <v>4.08705</v>
-      </c>
-      <c r="T47" s="5">
-        <v>3.46822173913044</v>
-      </c>
-      <c r="U47" s="5">
-        <v>3.53679090909091</v>
-      </c>
-    </row>
-    <row r="48" ht="17.25" spans="1:21">
+      <c r="S47" s="15">
+        <v>3.79230952380952</v>
+      </c>
+      <c r="T47" s="6">
+        <v>3.59145714285714</v>
+      </c>
+    </row>
+    <row r="48" ht="17.25" spans="1:20">
       <c r="A48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="4">
-        <v>6.1588</v>
-      </c>
-      <c r="C48" s="5">
-        <v>0.143232380952381</v>
-      </c>
-      <c r="D48" s="5">
+        <v>66</v>
+      </c>
+      <c r="B48" s="5">
+        <v>6.1393</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.136682608695652</v>
+      </c>
+      <c r="D48" s="6">
         <v>1.5269841</v>
       </c>
-      <c r="E48" s="5">
-        <v>0.1185</v>
-      </c>
-      <c r="F48" s="5">
+      <c r="E48" s="6">
+        <v>0.121363636363636</v>
+      </c>
+      <c r="F48" s="6">
         <v>0.08</v>
       </c>
       <c r="G48" s="1">
@@ -4405,60 +4291,57 @@
       <c r="I48" s="1">
         <v>8</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="10">
         <v>20.2</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="10">
         <v>19.7</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="11">
         <v>13.3143</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="6">
         <v>10.2</v>
       </c>
-      <c r="N48" s="10">
+      <c r="N48" s="12">
         <v>3.0519</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="6">
         <v>-1.34</v>
       </c>
       <c r="P48">
         <v>19.2003599254562</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="Q48" s="12">
         <v>8.9</v>
       </c>
-      <c r="R48" s="10">
+      <c r="R48" s="12">
         <v>14.2</v>
       </c>
-      <c r="S48" s="12">
-        <v>3.79230952380952</v>
-      </c>
-      <c r="T48" s="5">
-        <v>3.53679090909091</v>
-      </c>
-      <c r="U48" s="5">
-        <v>3.59145714285714</v>
-      </c>
-    </row>
-    <row r="49" ht="17.25" spans="1:21">
+      <c r="S48" s="15">
+        <v>4.29425263157895</v>
+      </c>
+      <c r="T48" s="6">
+        <v>3.63241052631579</v>
+      </c>
+    </row>
+    <row r="49" ht="17.25" spans="1:20">
       <c r="A49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="4">
-        <v>6.1393</v>
-      </c>
-      <c r="C49" s="5">
-        <v>0.136682608695652</v>
-      </c>
-      <c r="D49" s="5">
+        <v>67</v>
+      </c>
+      <c r="B49" s="5">
+        <v>6.1372</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.129190476190476</v>
+      </c>
+      <c r="D49" s="6">
         <v>1.52892913043478</v>
       </c>
-      <c r="E49" s="5">
-        <v>0.121363636363636</v>
-      </c>
-      <c r="F49" s="5">
+      <c r="E49" s="6">
+        <v>0.121578947368421</v>
+      </c>
+      <c r="F49" s="6">
         <v>0.0870967741935484</v>
       </c>
       <c r="G49" s="1">
@@ -4470,60 +4353,57 @@
       <c r="I49" s="1">
         <v>7.74</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="10">
         <v>20.1</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="10">
         <v>19.2</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="11">
         <v>13.3202</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="6">
         <v>10.3</v>
       </c>
-      <c r="N49" s="10">
+      <c r="N49" s="12">
         <v>3.2058</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="6">
         <v>-1.51</v>
       </c>
       <c r="P49">
         <v>18.4916466676061</v>
       </c>
-      <c r="Q49" s="10">
+      <c r="Q49" s="12">
         <v>8.9</v>
       </c>
-      <c r="R49" s="10">
+      <c r="R49" s="12">
         <v>14.3</v>
       </c>
-      <c r="S49" s="12">
-        <v>4.29425263157895</v>
-      </c>
-      <c r="T49" s="5">
-        <v>3.59145714285714</v>
-      </c>
-      <c r="U49" s="5">
-        <v>3.63241052631579</v>
-      </c>
-    </row>
-    <row r="50" ht="17.25" spans="1:21">
+      <c r="S49" s="15">
+        <v>4.51967619047619</v>
+      </c>
+      <c r="T49" s="6">
+        <v>4.07481428571429</v>
+      </c>
+    </row>
+    <row r="50" ht="17.25" spans="1:20">
       <c r="A50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="4">
-        <v>6.1372</v>
-      </c>
-      <c r="C50" s="5">
-        <v>0.129190476190476</v>
-      </c>
-      <c r="D50" s="5">
+        <v>68</v>
+      </c>
+      <c r="B50" s="5">
+        <v>6.116</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.1273025</v>
+      </c>
+      <c r="D50" s="6">
         <v>1.5870828</v>
       </c>
-      <c r="E50" s="5">
-        <v>0.121578947368421</v>
-      </c>
-      <c r="F50" s="5">
+      <c r="E50" s="6">
+        <v>0.132857142857143</v>
+      </c>
+      <c r="F50" s="6">
         <v>0.0843333333333333</v>
       </c>
       <c r="G50" s="1">
@@ -4535,60 +4415,57 @@
       <c r="I50" s="1">
         <v>8.22</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="10">
         <v>19.9</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="10">
         <v>19.5</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="11">
         <v>13.7213</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>10</v>
       </c>
-      <c r="N50" s="10">
+      <c r="N50" s="12">
         <v>3.018</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="6">
         <v>-1.42</v>
       </c>
       <c r="P50">
         <v>18.3886756407578</v>
       </c>
-      <c r="Q50" s="10">
+      <c r="Q50" s="12">
         <v>9.4</v>
       </c>
-      <c r="R50" s="10">
+      <c r="R50" s="12">
         <v>14.2</v>
       </c>
-      <c r="S50" s="12">
-        <v>4.51967619047619</v>
-      </c>
-      <c r="T50" s="5">
-        <v>3.63241052631579</v>
-      </c>
-      <c r="U50" s="5">
-        <v>4.07481428571429</v>
-      </c>
-    </row>
-    <row r="51" ht="17.25" spans="1:21">
+      <c r="S50" s="15">
+        <v>5.33360909090909</v>
+      </c>
+      <c r="T50" s="6">
+        <v>4.08131363636364</v>
+      </c>
+    </row>
+    <row r="51" ht="17.25" spans="1:20">
       <c r="A51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="4">
-        <v>6.116</v>
-      </c>
-      <c r="C51" s="5">
-        <v>0.1273025</v>
-      </c>
-      <c r="D51" s="5">
+        <v>69</v>
+      </c>
+      <c r="B51" s="5">
+        <v>6.1043</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.121993181818182</v>
+      </c>
+      <c r="D51" s="6">
         <v>1.60957747619048</v>
       </c>
-      <c r="E51" s="5">
-        <v>0.132857142857143</v>
-      </c>
-      <c r="F51" s="5">
+      <c r="E51" s="6">
+        <v>0.116190476190476</v>
+      </c>
+      <c r="F51" s="6">
         <v>0.0851612903225807</v>
       </c>
       <c r="G51" s="1">
@@ -4600,60 +4477,57 @@
       <c r="I51" s="1">
         <v>7.82</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="10">
         <v>19.6</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="10">
         <v>19.8</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="11">
         <v>13.6</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="6">
         <v>9.7</v>
       </c>
-      <c r="N51" s="10">
+      <c r="N51" s="12">
         <v>2.4987</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="6">
         <v>-1.36</v>
       </c>
       <c r="P51">
         <v>17.6993719241403</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="Q51" s="12">
         <v>9.3</v>
       </c>
-      <c r="R51" s="10">
+      <c r="R51" s="12">
         <v>13.6</v>
       </c>
-      <c r="S51" s="12">
-        <v>5.33360909090909</v>
-      </c>
-      <c r="T51" s="5">
-        <v>4.07481428571429</v>
-      </c>
-      <c r="U51" s="5">
-        <v>4.08131363636364</v>
-      </c>
-    </row>
-    <row r="52" ht="17.25" spans="1:21">
+      <c r="S51" s="15">
+        <v>4.77379090909091</v>
+      </c>
+      <c r="T51" s="6">
+        <v>3.91960454545454</v>
+      </c>
+    </row>
+    <row r="52" ht="17.25" spans="1:20">
       <c r="A52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="4">
-        <v>6.1043</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.121993181818182</v>
-      </c>
-      <c r="D52" s="5">
+        <v>70</v>
+      </c>
+      <c r="B52" s="5">
+        <v>6.1128</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.1193925</v>
+      </c>
+      <c r="D52" s="6">
         <v>1.62437223809524</v>
       </c>
-      <c r="E52" s="5">
-        <v>0.116190476190476</v>
-      </c>
-      <c r="F52" s="5">
+      <c r="E52" s="6">
+        <v>0.116842105263158</v>
+      </c>
+      <c r="F52" s="6">
         <v>0.0716129032258065</v>
       </c>
       <c r="G52" s="1">
@@ -4665,60 +4539,57 @@
       <c r="I52" s="1">
         <v>10.54</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="10">
         <v>17.9</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="10">
         <v>19.3</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="11">
         <v>11.8246</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>8.5</v>
       </c>
-      <c r="N52" s="10">
+      <c r="N52" s="12">
         <v>2.4861</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="6">
         <v>-1.64</v>
       </c>
       <c r="P52">
         <v>17.3062995663613</v>
       </c>
-      <c r="Q52" s="10">
+      <c r="Q52" s="12">
         <v>1.2</v>
       </c>
-      <c r="R52" s="10">
+      <c r="R52" s="12">
         <v>13.2</v>
       </c>
-      <c r="S52" s="12">
-        <v>4.77379090909091</v>
-      </c>
-      <c r="T52" s="5">
-        <v>4.08131363636364</v>
-      </c>
-      <c r="U52" s="5">
-        <v>3.91960454545454</v>
-      </c>
-    </row>
-    <row r="53" ht="17.25" spans="1:21">
+      <c r="S52" s="15">
+        <v>4.15696470588235</v>
+      </c>
+      <c r="T52" s="6">
+        <v>3.41595294117647</v>
+      </c>
+    </row>
+    <row r="53" ht="17.25" spans="1:20">
       <c r="A53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="4">
-        <v>6.1128</v>
-      </c>
-      <c r="C53" s="5">
-        <v>0.1193925</v>
-      </c>
-      <c r="D53" s="5">
+        <v>71</v>
+      </c>
+      <c r="B53" s="5">
+        <v>6.1358</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.120745238095238</v>
+      </c>
+      <c r="D53" s="6">
         <v>1.59584431578947</v>
       </c>
-      <c r="E53" s="5">
-        <v>0.116842105263158</v>
-      </c>
-      <c r="F53" s="5">
+      <c r="E53" s="6">
+        <v>0.128095238095238</v>
+      </c>
+      <c r="F53" s="6">
         <v>0.0664285714285715</v>
       </c>
       <c r="G53" s="1">
@@ -4730,60 +4601,57 @@
       <c r="I53" s="1">
         <v>-1.68</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="10">
         <v>17.9</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="10">
         <v>19.3</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="11">
         <v>11.8246</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>8.8</v>
       </c>
-      <c r="N53" s="10">
+      <c r="N53" s="12">
         <v>1.9511</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53" s="6">
         <v>-2</v>
       </c>
       <c r="P53">
         <v>16.9921027937895</v>
       </c>
-      <c r="Q53" s="10">
+      <c r="Q53" s="12">
         <v>6.9</v>
       </c>
-      <c r="R53" s="10">
+      <c r="R53" s="12">
         <v>13.3</v>
       </c>
-      <c r="S53" s="12">
-        <v>4.15696470588235</v>
-      </c>
-      <c r="T53" s="5">
-        <v>3.91960454545454</v>
-      </c>
-      <c r="U53" s="5">
-        <v>3.41595294117647</v>
-      </c>
-    </row>
-    <row r="54" ht="17.25" spans="1:21">
+      <c r="S53" s="15">
+        <v>3.20541428571429</v>
+      </c>
+      <c r="T53" s="6">
+        <v>3.1745619047619</v>
+      </c>
+    </row>
+    <row r="54" ht="17.25" spans="1:20">
       <c r="A54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="4">
-        <v>6.1358</v>
-      </c>
-      <c r="C54" s="5">
-        <v>0.120745238095238</v>
-      </c>
-      <c r="D54" s="5">
+        <v>72</v>
+      </c>
+      <c r="B54" s="5">
+        <v>6.1553</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.120115</v>
+      </c>
+      <c r="D54" s="6">
         <v>1.63086276190476</v>
       </c>
-      <c r="E54" s="5">
-        <v>0.128095238095238</v>
-      </c>
-      <c r="F54" s="5">
+      <c r="E54" s="6">
+        <v>0.107619047619048</v>
+      </c>
+      <c r="F54" s="6">
         <v>0.0780645161290323</v>
       </c>
       <c r="G54" s="1">
@@ -4795,60 +4663,57 @@
       <c r="I54" s="1">
         <v>-3.46</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="10">
         <v>17.6</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="10">
         <v>16.8</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="11">
         <v>12.2404</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>8.8</v>
       </c>
-      <c r="N54" s="10">
+      <c r="N54" s="12">
         <v>2.3848</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O54" s="6">
         <v>-2.3019</v>
       </c>
       <c r="P54">
         <v>16.1361256645183</v>
       </c>
-      <c r="Q54" s="10">
+      <c r="Q54" s="12">
         <v>5.4</v>
       </c>
-      <c r="R54" s="10">
+      <c r="R54" s="12">
         <v>12.1</v>
       </c>
-      <c r="S54" s="12">
-        <v>3.20541428571429</v>
-      </c>
-      <c r="T54" s="5">
-        <v>3.41595294117647</v>
-      </c>
-      <c r="U54" s="5">
-        <v>3.1745619047619</v>
-      </c>
-    </row>
-    <row r="55" ht="17.25" spans="1:21">
+      <c r="S54" s="15">
+        <v>3.50439523809524</v>
+      </c>
+      <c r="T54" s="6">
+        <v>3.42577142857143</v>
+      </c>
+    </row>
+    <row r="55" ht="17.25" spans="1:20">
       <c r="A55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="4">
-        <v>6.1553</v>
-      </c>
-      <c r="C55" s="5">
-        <v>0.120115</v>
-      </c>
-      <c r="D55" s="5">
+        <v>73</v>
+      </c>
+      <c r="B55" s="5">
+        <v>6.1636</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.1198375</v>
+      </c>
+      <c r="D55" s="6">
         <v>1.63995023809524</v>
       </c>
-      <c r="E55" s="5">
-        <v>0.107619047619048</v>
-      </c>
-      <c r="F55" s="5">
+      <c r="E55" s="6">
+        <v>0.0966666666666667</v>
+      </c>
+      <c r="F55" s="6">
         <v>0.0903333333333333</v>
       </c>
       <c r="G55" s="1">
@@ -4860,60 +4725,57 @@
       <c r="I55" s="1">
         <v>-2.31</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="10">
         <v>17.3</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="10">
         <v>16.4</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L55" s="11">
         <v>11.9</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="6">
         <v>8.7</v>
       </c>
-      <c r="N55" s="10">
+      <c r="N55" s="12">
         <v>1.8014</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O55" s="6">
         <v>-2.0042</v>
       </c>
       <c r="P55">
         <v>15.6430940521979</v>
       </c>
-      <c r="Q55" s="10">
+      <c r="Q55" s="12">
         <v>5.5</v>
       </c>
-      <c r="R55" s="10">
+      <c r="R55" s="12">
         <v>13.2</v>
       </c>
-      <c r="S55" s="12">
-        <v>3.50439523809524</v>
-      </c>
-      <c r="T55" s="5">
-        <v>3.1745619047619</v>
-      </c>
-      <c r="U55" s="5">
-        <v>3.42577142857143</v>
-      </c>
-    </row>
-    <row r="56" ht="17.25" spans="1:21">
+      <c r="S55" s="15">
+        <v>3.23209047619048</v>
+      </c>
+      <c r="T55" s="6">
+        <v>3.4775380952381</v>
+      </c>
+    </row>
+    <row r="56" ht="17.25" spans="1:20">
       <c r="A56" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="4">
+        <v>74</v>
+      </c>
+      <c r="B56" s="5">
         <v>6.1636</v>
       </c>
-      <c r="C56" s="5">
-        <v>0.1198375</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C56" s="6">
+        <v>0.122414285714286</v>
+      </c>
+      <c r="D56" s="6">
         <v>1.65672547619048</v>
       </c>
-      <c r="E56" s="5">
-        <v>0.0966666666666667</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="6">
+        <v>0.104761904761905</v>
+      </c>
+      <c r="F56" s="6">
         <v>0.0870967741935484</v>
       </c>
       <c r="G56" s="1">
@@ -4925,60 +4787,57 @@
       <c r="I56" s="1">
         <v>-0.36</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="10">
         <v>17.2</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="10">
         <v>14.7</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L56" s="11">
         <v>12.5143</v>
       </c>
-      <c r="M56" s="5">
+      <c r="M56" s="6">
         <v>8.8</v>
       </c>
-      <c r="N56" s="10">
+      <c r="N56" s="12">
         <v>2.4773</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56" s="6">
         <v>-1.4464</v>
       </c>
       <c r="P56">
         <v>15.6697418233463</v>
       </c>
-      <c r="Q56" s="10">
+      <c r="Q56" s="12">
         <v>5.7</v>
       </c>
-      <c r="R56" s="10">
+      <c r="R56" s="12">
         <v>13.4</v>
       </c>
-      <c r="S56" s="12">
-        <v>3.23209047619048</v>
-      </c>
-      <c r="T56" s="5">
-        <v>3.42577142857143</v>
-      </c>
-      <c r="U56" s="5">
-        <v>3.4775380952381</v>
-      </c>
-    </row>
-    <row r="57" ht="17.25" spans="1:21">
+      <c r="S56" s="15">
+        <v>3.307815</v>
+      </c>
+      <c r="T56" s="6">
+        <v>3.31535</v>
+      </c>
+    </row>
+    <row r="57" ht="17.25" spans="1:20">
       <c r="A57" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="4">
-        <v>6.1636</v>
-      </c>
-      <c r="C57" s="5">
-        <v>0.122414285714286</v>
-      </c>
-      <c r="D57" s="5">
+        <v>75</v>
+      </c>
+      <c r="B57" s="5">
+        <v>6.1569</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.12270652173913</v>
+      </c>
+      <c r="D57" s="6">
         <v>1.68437547619048</v>
       </c>
-      <c r="E57" s="5">
-        <v>0.104761904761905</v>
-      </c>
-      <c r="F57" s="5">
+      <c r="E57" s="6">
+        <v>0.111363636363636</v>
+      </c>
+      <c r="F57" s="6">
         <v>0.0956666666666667</v>
       </c>
       <c r="G57" s="1">
@@ -4990,60 +4849,57 @@
       <c r="I57" s="1">
         <v>0.89</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="10">
         <v>17.3</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="10">
         <v>14.1</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L57" s="11">
         <v>12.4</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M57" s="6">
         <v>9.2</v>
       </c>
-      <c r="N57" s="10">
+      <c r="N57" s="12">
         <v>2.3361</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O57" s="6">
         <v>-1.1092</v>
       </c>
       <c r="P57">
         <v>16.3801932376097</v>
       </c>
-      <c r="Q57" s="10">
+      <c r="Q57" s="12">
         <v>8.9</v>
       </c>
-      <c r="R57" s="10">
+      <c r="R57" s="12">
         <v>14.7</v>
       </c>
-      <c r="S57" s="12">
-        <v>3.307815</v>
-      </c>
-      <c r="T57" s="5">
-        <v>3.4775380952381</v>
-      </c>
-      <c r="U57" s="5">
-        <v>3.31535</v>
-      </c>
-    </row>
-    <row r="58" ht="17.25" spans="1:21">
+      <c r="S57" s="15">
+        <v>3.85398695652174</v>
+      </c>
+      <c r="T57" s="6">
+        <v>3.62823043478261</v>
+      </c>
+    </row>
+    <row r="58" ht="17.25" spans="1:20">
       <c r="A58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="4">
-        <v>6.1569</v>
-      </c>
-      <c r="C58" s="5">
-        <v>0.12270652173913</v>
-      </c>
-      <c r="D58" s="5">
+        <v>76</v>
+      </c>
+      <c r="B58" s="5">
+        <v>6.1606</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.121725</v>
+      </c>
+      <c r="D58" s="6">
         <v>1.69882640909091</v>
       </c>
-      <c r="E58" s="5">
-        <v>0.111363636363636</v>
-      </c>
-      <c r="F58" s="5">
+      <c r="E58" s="6">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="F58" s="6">
         <v>0.0909677419354838</v>
       </c>
       <c r="G58" s="1">
@@ -5055,60 +4911,57 @@
       <c r="I58" s="1">
         <v>2.92</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="10">
         <v>17</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="10">
         <v>13.7</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L58" s="11">
         <v>12.2217</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="6">
         <v>9</v>
       </c>
-      <c r="N58" s="10">
+      <c r="N58" s="12">
         <v>2.2852</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O58" s="6">
         <v>-0.8688</v>
       </c>
       <c r="P58">
         <v>15.7556485817086</v>
       </c>
-      <c r="Q58" s="10">
+      <c r="Q58" s="12">
         <v>6.7</v>
       </c>
-      <c r="R58" s="10">
+      <c r="R58" s="12">
         <v>13.5</v>
       </c>
-      <c r="S58" s="12">
-        <v>3.85398695652174</v>
-      </c>
-      <c r="T58" s="5">
-        <v>3.31535</v>
-      </c>
-      <c r="U58" s="5">
-        <v>3.62823043478261</v>
-      </c>
-    </row>
-    <row r="59" ht="17.25" spans="1:21">
+      <c r="S58" s="15">
+        <v>3.49328571428571</v>
+      </c>
+      <c r="T58" s="6">
+        <v>3.76218095238095</v>
+      </c>
+    </row>
+    <row r="59" ht="17.25" spans="1:20">
       <c r="A59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="4">
-        <v>6.1606</v>
-      </c>
-      <c r="C59" s="5">
-        <v>0.121725</v>
-      </c>
-      <c r="D59" s="5">
+        <v>77</v>
+      </c>
+      <c r="B59" s="5">
+        <v>6.1528</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.120870454545455</v>
+      </c>
+      <c r="D59" s="6">
         <v>1.67751542857143</v>
       </c>
-      <c r="E59" s="5">
-        <v>0.107142857142857</v>
-      </c>
-      <c r="F59" s="5">
+      <c r="E59" s="6">
+        <v>0.10952380952381</v>
+      </c>
+      <c r="F59" s="6">
         <v>0.0880645161290322</v>
       </c>
       <c r="G59" s="1">
@@ -5120,60 +4973,57 @@
       <c r="I59" s="1">
         <v>3.78</v>
       </c>
-      <c r="J59" s="8">
+      <c r="J59" s="10">
         <v>16.5</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="10">
         <v>13.2</v>
       </c>
-      <c r="L59" s="9">
+      <c r="L59" s="11">
         <v>11.9014</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="6">
         <v>6.9</v>
       </c>
-      <c r="N59" s="10">
+      <c r="N59" s="12">
         <v>1.9909</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59" s="6">
         <v>-1.2038</v>
       </c>
       <c r="P59">
         <v>14.9621448875217</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="Q59" s="12">
         <v>5.7</v>
       </c>
-      <c r="R59" s="10">
+      <c r="R59" s="12">
         <v>12.8</v>
       </c>
-      <c r="S59" s="12">
-        <v>3.49328571428571</v>
-      </c>
-      <c r="T59" s="5">
-        <v>3.62823043478261</v>
-      </c>
-      <c r="U59" s="5">
-        <v>3.76218095238095</v>
-      </c>
-    </row>
-    <row r="60" ht="17.25" spans="1:21">
+      <c r="S59" s="15">
+        <v>3.26415909090909</v>
+      </c>
+      <c r="T59" s="6">
+        <v>3.7839</v>
+      </c>
+    </row>
+    <row r="60" ht="17.25" spans="1:20">
       <c r="A60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="4">
-        <v>6.1528</v>
-      </c>
-      <c r="C60" s="5">
-        <v>0.120870454545455</v>
-      </c>
-      <c r="D60" s="5">
+        <v>78</v>
+      </c>
+      <c r="B60" s="5">
+        <v>6.1441</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0.119532608695652</v>
+      </c>
+      <c r="D60" s="6">
         <v>1.70981266666667</v>
       </c>
-      <c r="E60" s="5">
-        <v>0.10952380952381</v>
-      </c>
-      <c r="F60" s="5">
+      <c r="E60" s="6">
+        <v>0.104545454545455</v>
+      </c>
+      <c r="F60" s="6">
         <v>0.0883333333333333</v>
       </c>
       <c r="G60" s="1">
@@ -5185,60 +5035,57 @@
       <c r="I60" s="1">
         <v>5.1</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="10">
         <v>16.1</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="10">
         <v>12.5</v>
       </c>
-      <c r="L60" s="9">
+      <c r="L60" s="11">
         <v>11.5676</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="6">
         <v>8</v>
       </c>
-      <c r="N60" s="10">
+      <c r="N60" s="12">
         <v>1.6275</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60" s="6">
         <v>-1.7996</v>
       </c>
       <c r="P60">
         <v>14.525886665009</v>
       </c>
-      <c r="Q60" s="10">
+      <c r="Q60" s="12">
         <v>4.8</v>
       </c>
-      <c r="R60" s="10">
+      <c r="R60" s="12">
         <v>12.9</v>
       </c>
-      <c r="S60" s="12">
-        <v>3.26415909090909</v>
-      </c>
-      <c r="T60" s="5">
-        <v>3.76218095238095</v>
-      </c>
-      <c r="U60" s="5">
-        <v>3.7839</v>
-      </c>
-    </row>
-    <row r="61" ht="17.25" spans="1:21">
+      <c r="S60" s="15">
+        <v>3.0699</v>
+      </c>
+      <c r="T60" s="6">
+        <v>3.55412105263158</v>
+      </c>
+    </row>
+    <row r="61" ht="17.25" spans="1:20">
       <c r="A61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="4">
-        <v>6.1441</v>
-      </c>
-      <c r="C61" s="5">
-        <v>0.119532608695652</v>
-      </c>
-      <c r="D61" s="5">
+        <v>79</v>
+      </c>
+      <c r="B61" s="7">
+        <v>6.1432</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0.122225</v>
+      </c>
+      <c r="D61" s="6">
         <v>1.67018704347826</v>
       </c>
-      <c r="E61" s="5">
-        <v>0.104545454545455</v>
-      </c>
-      <c r="F61" s="5">
+      <c r="E61" s="6">
+        <v>0.134444444444444</v>
+      </c>
+      <c r="F61" s="6">
         <v>0.0890322580645161</v>
       </c>
       <c r="G61" s="1">
@@ -5250,60 +5097,57 @@
       <c r="I61" s="1">
         <v>5.77</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J61" s="10">
         <v>15.9</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K61" s="10">
         <v>12.4</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L61" s="11">
         <v>11.5208</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>7.7</v>
       </c>
-      <c r="N61" s="10">
+      <c r="N61" s="12">
         <v>1.6011</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O61" s="6">
         <v>-2.2428</v>
       </c>
       <c r="P61">
         <v>14.2513031291964</v>
       </c>
-      <c r="Q61" s="10">
+      <c r="Q61" s="12">
         <v>3.2</v>
       </c>
-      <c r="R61" s="10">
+      <c r="R61" s="12">
         <v>12.6</v>
       </c>
-      <c r="S61" s="12">
-        <v>3.0699</v>
-      </c>
-      <c r="T61" s="5">
-        <v>3.7839</v>
-      </c>
-      <c r="U61" s="5">
-        <v>3.55412105263158</v>
-      </c>
-    </row>
-    <row r="62" ht="17.25" spans="1:21">
+      <c r="S61" s="15">
+        <v>3.251685</v>
+      </c>
+      <c r="T61" s="6">
+        <v>3.15967</v>
+      </c>
+    </row>
+    <row r="62" ht="17.25" spans="1:20">
       <c r="A62" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="6">
-        <v>6.1432</v>
-      </c>
-      <c r="C62" s="5">
-        <v>0.122225</v>
-      </c>
-      <c r="D62" s="5">
+        <v>80</v>
+      </c>
+      <c r="B62" s="7">
+        <v>6.1238</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0.133080952380952</v>
+      </c>
+      <c r="D62" s="6">
         <v>1.76489773684211</v>
       </c>
-      <c r="E62" s="5">
-        <v>0.134444444444444</v>
-      </c>
-      <c r="F62" s="5">
+      <c r="E62" s="6">
+        <v>0.214545454545455</v>
+      </c>
+      <c r="F62" s="6">
         <v>0.092</v>
       </c>
       <c r="G62" s="1">
@@ -5315,60 +5159,57 @@
       <c r="I62" s="1">
         <v>5.66</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J62" s="10">
         <v>15.8</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="10">
         <v>11.9</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L62" s="11">
         <v>11.7208</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="6">
         <v>7.2</v>
       </c>
-      <c r="N62" s="10">
+      <c r="N62" s="12">
         <v>1.4393</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O62" s="6">
         <v>-2.6928</v>
       </c>
       <c r="P62">
         <v>14.0225685040048</v>
       </c>
-      <c r="Q62" s="10">
+      <c r="Q62" s="12">
         <v>3.2</v>
       </c>
-      <c r="R62" s="10">
+      <c r="R62" s="12">
         <v>12.3</v>
       </c>
-      <c r="S62" s="12">
-        <v>3.251685</v>
-      </c>
-      <c r="T62" s="5">
-        <v>3.55412105263158</v>
-      </c>
-      <c r="U62" s="5">
-        <v>3.15967</v>
-      </c>
-    </row>
-    <row r="63" ht="17.25" spans="1:21">
+      <c r="S62" s="6">
+        <v>4.3277</v>
+      </c>
+      <c r="T62" s="6">
+        <v>3.30026956521739</v>
+      </c>
+    </row>
+    <row r="63" ht="17.25" spans="1:20">
       <c r="A63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="6">
-        <v>6.1238</v>
-      </c>
-      <c r="C63" s="5">
-        <v>0.133080952380952</v>
-      </c>
-      <c r="D63" s="5">
+        <v>81</v>
+      </c>
+      <c r="B63" s="7">
+        <v>6.1272</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0.134978571428571</v>
+      </c>
+      <c r="D63" s="6">
         <v>1.77542404545455</v>
       </c>
-      <c r="E63" s="5">
-        <v>0.214545454545455</v>
-      </c>
-      <c r="F63" s="5">
+      <c r="E63" s="6">
+        <v>0.1955</v>
+      </c>
+      <c r="F63" s="6">
         <v>0.12258064516129</v>
       </c>
       <c r="G63" s="1">
@@ -5380,60 +5221,57 @@
       <c r="I63" s="1">
         <v>6.03</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="10">
         <v>15.7</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="10">
         <v>10.5</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L63" s="11">
         <v>11.8891</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="6">
         <v>7.9</v>
       </c>
-      <c r="N63" s="10">
+      <c r="N63" s="12">
         <v>1.5056</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O63" s="6">
         <v>-3.3152</v>
       </c>
       <c r="P63">
         <v>14.2531867834134</v>
       </c>
-      <c r="Q63" s="10">
+      <c r="Q63" s="12">
         <v>3.2</v>
       </c>
-      <c r="R63" s="10">
+      <c r="R63" s="12">
         <v>12.2</v>
       </c>
-      <c r="S63" s="5">
-        <v>4.3277</v>
-      </c>
-      <c r="T63" s="5">
-        <v>3.15967</v>
-      </c>
-      <c r="U63" s="5">
-        <v>3.30026956521739</v>
-      </c>
-    </row>
-    <row r="64" ht="18" spans="1:21">
+      <c r="S63" s="6">
+        <v>4.0052</v>
+      </c>
+      <c r="T63" s="6">
+        <v>3.1742619047619</v>
+      </c>
+    </row>
+    <row r="64" ht="18" spans="1:20">
       <c r="A64" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="6">
-        <v>6.1272</v>
-      </c>
-      <c r="C64" s="5">
-        <v>0.134978571428571</v>
-      </c>
-      <c r="D64" s="5">
+        <v>82</v>
+      </c>
+      <c r="B64" s="7">
+        <v>6.1339</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0.1376425</v>
+      </c>
+      <c r="D64" s="6">
         <v>1.7542255</v>
       </c>
-      <c r="E64" s="5">
-        <v>0.1955</v>
-      </c>
-      <c r="F64" s="5">
+      <c r="E64" s="6">
+        <v>0.224210526315789</v>
+      </c>
+      <c r="F64" s="6">
         <v>0.114838709677419</v>
       </c>
       <c r="G64" s="1">
@@ -5445,60 +5283,57 @@
       <c r="I64" s="1">
         <v>-3.46</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J64" s="10">
         <v>13.9</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="13">
         <v>10.4</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L64" s="11">
         <v>10.7142</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="6">
         <v>9.6</v>
       </c>
-      <c r="N64" s="10">
+      <c r="N64" s="12">
         <v>0.7638</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O64" s="6">
         <v>-4.3202</v>
       </c>
       <c r="P64">
         <v>13.4723839270626</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="Q64" s="12">
         <v>10.6</v>
       </c>
-      <c r="R64" s="10">
+      <c r="R64" s="12">
         <v>10.8</v>
       </c>
-      <c r="S64" s="5">
-        <v>4.0052</v>
-      </c>
-      <c r="T64" s="5">
-        <v>3.30026956521739</v>
-      </c>
-      <c r="U64" s="5">
-        <v>3.1742619047619</v>
-      </c>
-    </row>
-    <row r="65" ht="18" spans="1:21">
+      <c r="S64" s="6">
+        <v>4.64983529411765</v>
+      </c>
+      <c r="T64" s="6">
+        <v>3.07311176470588</v>
+      </c>
+    </row>
+    <row r="65" ht="18" spans="1:20">
       <c r="A65" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="6">
-        <v>6.1339</v>
-      </c>
-      <c r="C65" s="5">
-        <v>0.1376425</v>
-      </c>
-      <c r="D65" s="5">
+        <v>83</v>
+      </c>
+      <c r="B65" s="7">
+        <v>6.1507</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0.140229545454545</v>
+      </c>
+      <c r="D65" s="6">
         <v>1.79454121052632</v>
       </c>
-      <c r="E65" s="5">
-        <v>0.224210526315789</v>
-      </c>
-      <c r="F65" s="5">
+      <c r="E65" s="6">
+        <v>0.253636363636364</v>
+      </c>
+      <c r="F65" s="6">
         <v>0.110714285714286</v>
       </c>
       <c r="G65" s="1">
@@ -5510,60 +5345,57 @@
       <c r="I65" s="1">
         <v>14.87</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J65" s="10">
         <v>13.9</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65" s="13">
         <v>10.4</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L65" s="11">
         <v>10.7142</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="6">
         <v>3.6</v>
       </c>
-      <c r="N65" s="10">
+      <c r="N65" s="12">
         <v>1.4311</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65" s="6">
         <v>-4.7976</v>
       </c>
       <c r="P65">
         <v>13.7231691586762</v>
       </c>
-      <c r="Q65" s="10">
+      <c r="Q65" s="12">
         <v>5.6</v>
       </c>
-      <c r="R65" s="10">
+      <c r="R65" s="12">
         <v>12.5</v>
       </c>
-      <c r="S65" s="5">
-        <v>4.64983529411765</v>
-      </c>
-      <c r="T65" s="5">
-        <v>3.1742619047619</v>
-      </c>
-      <c r="U65" s="5">
-        <v>3.07311176470588</v>
-      </c>
-    </row>
-    <row r="66" ht="18" spans="1:21">
+      <c r="S65" s="6">
+        <v>4.4802</v>
+      </c>
+      <c r="T65" s="6">
+        <v>3.09835454545454</v>
+      </c>
+    </row>
+    <row r="66" ht="18" spans="1:20">
       <c r="A66" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="6">
-        <v>6.1507</v>
-      </c>
-      <c r="C66" s="5">
-        <v>0.140229545454545</v>
-      </c>
-      <c r="D66" s="5">
+        <v>84</v>
+      </c>
+      <c r="B66" s="7">
+        <v>6.1302</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0.1460525</v>
+      </c>
+      <c r="D66" s="6">
         <v>1.7931745</v>
       </c>
-      <c r="E66" s="5">
-        <v>0.253636363636364</v>
-      </c>
-      <c r="F66" s="5">
+      <c r="E66" s="6">
+        <v>0.233636363636364</v>
+      </c>
+      <c r="F66" s="6">
         <v>0.112903225806452</v>
       </c>
       <c r="G66" s="1">
@@ -5575,60 +5407,57 @@
       <c r="I66" s="1">
         <v>4.47</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="10">
         <v>13.5</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="13">
         <v>8.5</v>
       </c>
-      <c r="L66" s="9">
+      <c r="L66" s="11">
         <v>10.2445</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="6">
         <v>5.6</v>
       </c>
-      <c r="N66" s="10">
+      <c r="N66" s="12">
         <v>1.3758</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66" s="6">
         <v>-4.5603</v>
       </c>
       <c r="P66">
         <v>12.7815203901773</v>
       </c>
-      <c r="Q66" s="10">
+      <c r="Q66" s="12">
         <v>2.9</v>
       </c>
-      <c r="R66" s="10">
+      <c r="R66" s="12">
         <v>11.6</v>
       </c>
-      <c r="S66" s="5">
-        <v>4.4802</v>
-      </c>
-      <c r="T66" s="5">
-        <v>3.07311176470588</v>
-      </c>
-      <c r="U66" s="5">
-        <v>3.09835454545454</v>
-      </c>
-    </row>
-    <row r="67" ht="18" spans="1:21">
+      <c r="S66" s="6">
+        <v>2.90885238095238</v>
+      </c>
+      <c r="T66" s="6">
+        <v>3.05044285714286</v>
+      </c>
+    </row>
+    <row r="67" ht="18" spans="1:20">
       <c r="A67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="6">
-        <v>6.1302</v>
-      </c>
-      <c r="C67" s="5">
-        <v>0.1460525</v>
-      </c>
-      <c r="D67" s="5">
+        <v>85</v>
+      </c>
+      <c r="B67" s="7">
+        <v>6.1143</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0.14795</v>
+      </c>
+      <c r="D67" s="6">
         <v>1.79705133333333</v>
       </c>
-      <c r="E67" s="5">
-        <v>0.233636363636364</v>
-      </c>
-      <c r="F67" s="5">
+      <c r="E67" s="6">
+        <v>0.241</v>
+      </c>
+      <c r="F67" s="6">
         <v>0.124666666666667</v>
       </c>
       <c r="G67" s="1">
@@ -5640,60 +5469,57 @@
       <c r="I67" s="1">
         <v>1.39</v>
       </c>
-      <c r="J67" s="8">
+      <c r="J67" s="10">
         <v>12</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="13">
         <v>6</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L67" s="11">
         <v>10.0024</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="6">
         <v>5.9</v>
       </c>
-      <c r="N67" s="10">
+      <c r="N67" s="12">
         <v>1.5091</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="6">
         <v>-4.5725</v>
       </c>
       <c r="P67">
         <v>12.2396821244032</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q67" s="12">
         <v>3.7</v>
       </c>
-      <c r="R67" s="10">
+      <c r="R67" s="12">
         <v>10.1</v>
       </c>
-      <c r="S67" s="5">
-        <v>2.90885238095238</v>
-      </c>
-      <c r="T67" s="5">
-        <v>3.09835454545454</v>
-      </c>
-      <c r="U67" s="5">
-        <v>3.05044285714286</v>
-      </c>
-    </row>
-    <row r="68" ht="18" spans="1:21">
+      <c r="S67" s="6">
+        <v>2.11966</v>
+      </c>
+      <c r="T67" s="6">
+        <v>2.401505</v>
+      </c>
+    </row>
+    <row r="68" ht="18" spans="1:20">
       <c r="A68" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="6">
-        <v>6.1143</v>
-      </c>
-      <c r="C68" s="5">
-        <v>0.14795</v>
-      </c>
-      <c r="D68" s="5">
+        <v>86</v>
+      </c>
+      <c r="B68" s="7">
+        <v>6.1161</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0.146815909090909</v>
+      </c>
+      <c r="D68" s="6">
         <v>1.8124713</v>
       </c>
-      <c r="E68" s="5">
-        <v>0.241</v>
-      </c>
-      <c r="F68" s="5">
+      <c r="E68" s="6">
+        <v>0.275454545454546</v>
+      </c>
+      <c r="F68" s="6">
         <v>0.123225806451613</v>
       </c>
       <c r="G68" s="1">
@@ -5705,60 +5531,57 @@
       <c r="I68" s="1">
         <v>0.3</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J68" s="10">
         <v>11.4</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="13">
         <v>5.1</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L68" s="11">
         <v>10.1302</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="6">
         <v>6.1</v>
       </c>
-      <c r="N68" s="10">
+      <c r="N68" s="12">
         <v>1.2308</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="6">
         <v>-4.607</v>
       </c>
       <c r="P68">
         <v>11.9704187019504</v>
       </c>
-      <c r="Q68" s="10">
+      <c r="Q68" s="12">
         <v>4.7</v>
       </c>
-      <c r="R68" s="10">
+      <c r="R68" s="12">
         <v>10.8</v>
       </c>
-      <c r="S68" s="5">
-        <v>2.11966</v>
-      </c>
-      <c r="T68" s="5">
-        <v>3.05044285714286</v>
-      </c>
-      <c r="U68" s="5">
-        <v>2.401505</v>
-      </c>
-    </row>
-    <row r="69" ht="18" spans="1:21">
+      <c r="S68" s="6">
+        <v>2.4529619047619</v>
+      </c>
+      <c r="T68" s="6">
+        <v>1.77269047619048</v>
+      </c>
+    </row>
+    <row r="69" ht="18" spans="1:20">
       <c r="A69" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69" s="6">
-        <v>6.1161</v>
-      </c>
-      <c r="C69" s="5">
-        <v>0.146815909090909</v>
-      </c>
-      <c r="D69" s="5">
+        <v>87</v>
+      </c>
+      <c r="B69" s="7">
+        <v>6.1167</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0.148878260869565</v>
+      </c>
+      <c r="D69" s="6">
         <v>1.79272190909091</v>
       </c>
-      <c r="E69" s="5">
-        <v>0.275454545454546</v>
-      </c>
-      <c r="F69" s="5">
+      <c r="E69" s="6">
+        <v>0.296818181818182</v>
+      </c>
+      <c r="F69" s="6">
         <v>0.129</v>
       </c>
       <c r="G69" s="1">
@@ -5770,60 +5593,57 @@
       <c r="I69" s="1">
         <v>0.51</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J69" s="10">
         <v>11.4</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69" s="13">
         <v>4.6</v>
       </c>
-      <c r="L69" s="9">
+      <c r="L69" s="11">
         <v>10.632</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="6">
         <v>6.8</v>
       </c>
-      <c r="N69" s="10">
+      <c r="N69" s="12">
         <v>1.3909</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="6">
         <v>-4.8135</v>
       </c>
       <c r="P69">
         <v>11.680482111002</v>
       </c>
-      <c r="Q69" s="10">
+      <c r="Q69" s="12">
         <v>4.3</v>
       </c>
-      <c r="R69" s="10">
+      <c r="R69" s="12">
         <v>11.8</v>
       </c>
-      <c r="S69" s="5">
-        <v>2.4529619047619</v>
-      </c>
-      <c r="T69" s="5">
-        <v>2.401505</v>
-      </c>
-      <c r="U69" s="5">
-        <v>1.77269047619048</v>
-      </c>
-    </row>
-    <row r="70" ht="18" spans="1:21">
+      <c r="S69" s="6">
+        <v>2.56421739130435</v>
+      </c>
+      <c r="T69" s="6">
+        <v>2.23196086956522</v>
+      </c>
+    </row>
+    <row r="70" ht="18" spans="1:20">
       <c r="A70" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="6">
-        <v>6.1167</v>
-      </c>
-      <c r="C70" s="5">
-        <v>0.148878260869565</v>
-      </c>
-      <c r="D70" s="5">
+        <v>88</v>
+      </c>
+      <c r="B70" s="7">
+        <v>6.3056</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0.151965</v>
+      </c>
+      <c r="D70" s="6">
         <v>1.77950168181818</v>
       </c>
-      <c r="E70" s="5">
-        <v>0.296818181818182</v>
-      </c>
-      <c r="F70" s="5">
+      <c r="E70" s="6">
+        <v>0.375714285714286</v>
+      </c>
+      <c r="F70" s="6">
         <v>0.130322580645161</v>
       </c>
       <c r="G70" s="1">
@@ -5835,60 +5655,57 @@
       <c r="I70" s="1">
         <v>-1.11</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="10">
         <v>11.2</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="13">
         <v>4.3</v>
       </c>
-      <c r="L70" s="9">
+      <c r="L70" s="11">
         <v>10.5123</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>6</v>
       </c>
-      <c r="N70" s="10">
+      <c r="N70" s="12">
         <v>1.6473</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="6">
         <v>-5.3692</v>
       </c>
       <c r="P70">
         <v>12.0341266634009</v>
       </c>
-      <c r="Q70" s="10">
+      <c r="Q70" s="12">
         <v>6.6</v>
       </c>
-      <c r="R70" s="10">
+      <c r="R70" s="12">
         <v>13.3</v>
       </c>
-      <c r="S70" s="5">
-        <v>2.56421739130435</v>
-      </c>
-      <c r="T70" s="5">
-        <v>1.77269047619048</v>
-      </c>
-      <c r="U70" s="5">
-        <v>2.23196086956522</v>
-      </c>
-    </row>
-    <row r="71" ht="18" spans="1:21">
+      <c r="S70" s="6">
+        <v>2.46977619047619</v>
+      </c>
+      <c r="T70" s="6">
+        <v>2.26291428571429</v>
+      </c>
+    </row>
+    <row r="71" ht="18" spans="1:20">
       <c r="A71" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="6">
-        <v>6.3056</v>
-      </c>
-      <c r="C71" s="5">
-        <v>0.151965</v>
-      </c>
-      <c r="D71" s="5">
+        <v>89</v>
+      </c>
+      <c r="B71" s="7">
+        <v>6.3691</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0.156613636363636</v>
+      </c>
+      <c r="D71" s="6">
         <v>1.70615933333333</v>
       </c>
-      <c r="E71" s="5">
-        <v>0.375714285714286</v>
-      </c>
-      <c r="F71" s="5">
+      <c r="E71" s="6">
+        <v>0.373333333333333</v>
+      </c>
+      <c r="F71" s="6">
         <v>0.137096774193548</v>
       </c>
       <c r="G71" s="1">
@@ -5900,60 +5717,57 @@
       <c r="I71" s="1">
         <v>-1.78</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="10">
         <v>10.9</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71" s="13">
         <v>3.5</v>
       </c>
-      <c r="L71" s="9">
+      <c r="L71" s="11">
         <v>10.7923</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>6.1</v>
       </c>
-      <c r="N71" s="10">
+      <c r="N71" s="12">
         <v>1.9554</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="6">
         <v>-5.9227</v>
       </c>
       <c r="P71">
         <v>12.0630830811901</v>
       </c>
-      <c r="Q71" s="10">
+      <c r="Q71" s="12">
         <v>9.3</v>
       </c>
-      <c r="R71" s="10">
+      <c r="R71" s="12">
         <v>13.3</v>
       </c>
-      <c r="S71" s="5">
-        <v>2.46977619047619</v>
-      </c>
-      <c r="T71" s="5">
-        <v>2.23196086956522</v>
-      </c>
-      <c r="U71" s="5">
-        <v>2.26291428571429</v>
-      </c>
-    </row>
-    <row r="72" ht="18" spans="1:21">
+      <c r="S71" s="6">
+        <v>2.40790952380952</v>
+      </c>
+      <c r="T71" s="6">
+        <v>2.30650952380952</v>
+      </c>
+    </row>
+    <row r="72" ht="18" spans="1:20">
       <c r="A72" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B72" s="6">
-        <v>6.3691</v>
-      </c>
-      <c r="C72" s="5">
-        <v>0.156613636363636</v>
-      </c>
-      <c r="D72" s="5">
+        <v>90</v>
+      </c>
+      <c r="B72" s="7">
+        <v>6.3486</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0.155313636363636</v>
+      </c>
+      <c r="D72" s="6">
         <v>1.633995</v>
       </c>
-      <c r="E72" s="5">
-        <v>0.373333333333333</v>
-      </c>
-      <c r="F72" s="5">
+      <c r="E72" s="6">
+        <v>0.263333333333333</v>
+      </c>
+      <c r="F72" s="6">
         <v>0.136</v>
       </c>
       <c r="G72" s="1">
@@ -5965,60 +5779,57 @@
       <c r="I72" s="1">
         <v>-2.06</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J72" s="10">
         <v>10.3</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="13">
         <v>2.6</v>
       </c>
-      <c r="L72" s="9">
+      <c r="L72" s="11">
         <v>10.9</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>5.7</v>
       </c>
-      <c r="N72" s="10">
+      <c r="N72" s="12">
         <v>1.5956</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O72" s="6">
         <v>-5.945</v>
       </c>
       <c r="P72">
         <v>12.1291708155177</v>
       </c>
-      <c r="Q72" s="10">
+      <c r="Q72" s="12">
         <v>11.4</v>
       </c>
-      <c r="R72" s="10">
+      <c r="R72" s="12">
         <v>13.1</v>
       </c>
-      <c r="S72" s="5">
-        <v>2.40790952380952</v>
-      </c>
-      <c r="T72" s="5">
-        <v>2.26291428571429</v>
-      </c>
-      <c r="U72" s="5">
-        <v>2.30650952380952</v>
-      </c>
-    </row>
-    <row r="73" ht="18" spans="1:21">
+      <c r="S72" s="6">
+        <v>2.42272222222222</v>
+      </c>
+      <c r="T72" s="6">
+        <v>2.40926666666667</v>
+      </c>
+    </row>
+    <row r="73" ht="18" spans="1:20">
       <c r="A73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="6">
-        <v>6.3486</v>
-      </c>
-      <c r="C73" s="5">
-        <v>0.155313636363636</v>
-      </c>
-      <c r="D73" s="5">
+        <v>91</v>
+      </c>
+      <c r="B73" s="7">
+        <v>6.3666</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0.155921428571429</v>
+      </c>
+      <c r="D73" s="6">
         <v>1.71822822727273</v>
       </c>
-      <c r="E73" s="5">
-        <v>0.263333333333333</v>
-      </c>
-      <c r="F73" s="5">
+      <c r="E73" s="6">
+        <v>0.476842105263158</v>
+      </c>
+      <c r="F73" s="6">
         <v>0.123548387096774</v>
       </c>
       <c r="G73" s="1">
@@ -6030,60 +5841,57 @@
       <c r="I73" s="1">
         <v>-2.6</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J73" s="10">
         <v>10.2</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K73" s="13">
         <v>2</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L73" s="11">
         <v>11.0234</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>5.6</v>
       </c>
-      <c r="N73" s="10">
+      <c r="N73" s="12">
         <v>1.2674</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O73" s="6">
         <v>-5.9</v>
       </c>
       <c r="P73">
         <v>11.9707259170873</v>
       </c>
-      <c r="Q73" s="10">
+      <c r="Q73" s="12">
         <v>14</v>
       </c>
-      <c r="R73" s="10">
+      <c r="R73" s="12">
         <v>13.5</v>
       </c>
-      <c r="S73" s="5">
-        <v>2.42272222222222</v>
-      </c>
-      <c r="T73" s="5">
-        <v>2.30650952380952</v>
-      </c>
-      <c r="U73" s="5">
-        <v>2.40926666666667</v>
-      </c>
-    </row>
-    <row r="74" ht="18" spans="1:21">
+      <c r="S73" s="6">
+        <v>2.36339523809524</v>
+      </c>
+      <c r="T73" s="6">
+        <v>2.53939047619048</v>
+      </c>
+    </row>
+    <row r="74" ht="18" spans="1:20">
       <c r="A74" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" s="6">
-        <v>6.3666</v>
-      </c>
-      <c r="C74" s="5">
-        <v>0.155921428571429</v>
-      </c>
-      <c r="D74" s="5">
+        <v>92</v>
+      </c>
+      <c r="B74" s="7">
+        <v>6.4476</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0.289352380952381</v>
+      </c>
+      <c r="D74" s="6">
         <v>1.77237685</v>
       </c>
-      <c r="E74" s="5">
-        <v>0.476842105263158</v>
-      </c>
-      <c r="F74" s="5">
+      <c r="E74" s="6">
+        <v>0.653636363636364</v>
+      </c>
+      <c r="F74" s="6">
         <v>0.117666666666667</v>
       </c>
       <c r="G74" s="1">
@@ -6095,107 +5903,45 @@
       <c r="I74" s="1">
         <v>-3.05</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="10">
         <v>10.2</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74" s="13">
         <v>1.3</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L74" s="11">
         <v>11.1722</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>6.2</v>
       </c>
-      <c r="N74" s="10">
+      <c r="N74" s="12">
         <v>1.4856</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O74" s="6">
         <v>-5.9</v>
       </c>
       <c r="P74">
         <v>11.7724011176978</v>
       </c>
-      <c r="Q74" s="10">
+      <c r="Q74" s="12">
         <v>15.7</v>
       </c>
-      <c r="R74" s="10">
+      <c r="R74" s="12">
         <v>13.7</v>
       </c>
-      <c r="S74" s="5">
-        <v>2.36339523809524</v>
-      </c>
-      <c r="T74" s="5">
-        <v>2.40926666666667</v>
-      </c>
-      <c r="U74" s="5">
-        <v>2.53939047619048</v>
-      </c>
-    </row>
-    <row r="75" ht="18" spans="1:21">
-      <c r="A75" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="6">
-        <v>6.4476</v>
-      </c>
-      <c r="C75" s="5">
-        <v>0.289352380952381</v>
-      </c>
-      <c r="D75" s="5">
-        <v>1.7542855</v>
-      </c>
-      <c r="E75" s="5">
-        <v>0.653636363636364</v>
-      </c>
-      <c r="F75" s="5">
-        <v>0.240645161290323</v>
-      </c>
-      <c r="G75" s="1">
-        <v>52.7</v>
-      </c>
-      <c r="H75" s="1">
-        <v>-14.27</v>
-      </c>
-      <c r="I75" s="1">
-        <v>-2.94</v>
-      </c>
-      <c r="J75" s="8">
-        <v>10</v>
-      </c>
-      <c r="K75" s="11">
-        <v>1</v>
-      </c>
-      <c r="L75" s="9">
-        <v>11.1</v>
-      </c>
-      <c r="M75" s="5">
-        <v>5.9</v>
-      </c>
-      <c r="N75" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="O75" s="5">
-        <v>-5.9</v>
-      </c>
-      <c r="P75">
-        <v>11.709632845527</v>
-      </c>
-      <c r="Q75" s="10">
-        <v>15.2</v>
-      </c>
-      <c r="R75" s="10">
-        <v>13.3</v>
-      </c>
-      <c r="S75" s="5">
+      <c r="S74" s="6">
         <v>2.45235652173913</v>
       </c>
-      <c r="T75" s="5">
-        <v>2.53939047619048</v>
-      </c>
-      <c r="U75" s="5">
+      <c r="T74" s="6">
         <v>2.41581304347826</v>
       </c>
+    </row>
+    <row r="75" spans="8:11">
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
     </row>
     <row r="76" spans="8:11">
       <c r="H76"/>
@@ -6269,6 +6015,198 @@
       <c r="J87"/>
       <c r="K87"/>
     </row>
+    <row r="88" spans="8:11">
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="8:11">
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="8:11">
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="8:11">
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="8:11">
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="8:11">
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="8:11">
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="8:11">
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="8:11">
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="8:11">
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="8:11">
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="8:11">
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+    </row>
+    <row r="100" spans="8:11">
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+    </row>
+    <row r="101" spans="8:11">
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+    </row>
+    <row r="102" spans="8:11">
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+    </row>
+    <row r="103" spans="8:11">
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+    </row>
+    <row r="104" spans="8:11">
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="8:11">
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+    </row>
+    <row r="106" spans="8:11">
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+    </row>
+    <row r="107" spans="8:11">
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+    </row>
+    <row r="108" spans="8:11">
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+    </row>
+    <row r="109" spans="8:11">
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+    </row>
+    <row r="110" spans="8:11">
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+    </row>
+    <row r="111" spans="8:11">
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+    </row>
+    <row r="112" spans="8:11">
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+    </row>
+    <row r="113" spans="8:11">
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+    </row>
+    <row r="114" spans="8:11">
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+    </row>
+    <row r="115" spans="8:11">
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+    </row>
+    <row r="116" spans="8:11">
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+    </row>
+    <row r="117" spans="8:11">
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+    </row>
+    <row r="118" spans="8:11">
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+    </row>
+    <row r="119" spans="8:11">
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
